--- a/Prime/src/assets/img/Shipping Instructions.xlsx
+++ b/Prime/src/assets/img/Shipping Instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>BOOKING_NO</t>
   </si>
@@ -94,33 +94,6 @@
   <si>
     <t>MEASUREMENT</t>
   </si>
-  <si>
-    <t>SIKU3007144</t>
-  </si>
-  <si>
-    <t>20GP</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>BAGS</t>
-  </si>
-  <si>
-    <t>ILSU2027090</t>
-  </si>
-  <si>
-    <t>BUNDLES</t>
-  </si>
-  <si>
-    <t>SIKU2010930</t>
-  </si>
-  <si>
-    <t>SIKU2927451</t>
-  </si>
-  <si>
-    <t>ILSU2014154</t>
-  </si>
 </sst>
 </file>
 
@@ -188,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -209,31 +182,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -290,8 +243,6 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -20653,178 +20604,88 @@
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5">
-        <v>12345.0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>90.0</v>
-      </c>
+      <c r="A2" s="20"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5">
-        <v>123456.0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="5">
-        <v>50.0</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="5">
-        <v>400.0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>90.0</v>
-      </c>
+      <c r="A3" s="20"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1234567.0</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="5">
-        <v>80.0</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="5">
-        <v>400.0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>90.0</v>
-      </c>
+      <c r="A4" s="20"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1.2334564E7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="5">
-        <v>120.0</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="5">
-        <v>400.0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>90.0</v>
-      </c>
+      <c r="A5" s="20"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="23">
-        <v>4.3546554645E10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
-        <v>135.0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="5">
-        <v>400.0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>500.0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>90.0</v>
-      </c>
+      <c r="A6" s="20"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -20833,7 +20694,7 @@
       <c r="I7" s="5"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -20843,7 +20704,7 @@
       <c r="I8" s="5"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -20853,7 +20714,7 @@
       <c r="I9" s="5"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -23063,3124 +22924,3124 @@
       <c r="I210" s="5"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="23"/>
-      <c r="B211" s="23"/>
+      <c r="A211" s="21"/>
+      <c r="B211" s="21"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="23"/>
-      <c r="B212" s="23"/>
+      <c r="A212" s="21"/>
+      <c r="B212" s="21"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="23"/>
-      <c r="B213" s="23"/>
+      <c r="A213" s="21"/>
+      <c r="B213" s="21"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="23"/>
-      <c r="B214" s="23"/>
+      <c r="A214" s="21"/>
+      <c r="B214" s="21"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="23"/>
-      <c r="B215" s="23"/>
+      <c r="A215" s="21"/>
+      <c r="B215" s="21"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="23"/>
-      <c r="B216" s="23"/>
+      <c r="A216" s="21"/>
+      <c r="B216" s="21"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="23"/>
-      <c r="B217" s="23"/>
+      <c r="A217" s="21"/>
+      <c r="B217" s="21"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="23"/>
-      <c r="B218" s="23"/>
+      <c r="A218" s="21"/>
+      <c r="B218" s="21"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="23"/>
-      <c r="B219" s="23"/>
+      <c r="A219" s="21"/>
+      <c r="B219" s="21"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="23"/>
-      <c r="B220" s="23"/>
+      <c r="A220" s="21"/>
+      <c r="B220" s="21"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="24"/>
-      <c r="B222" s="24"/>
+      <c r="A222" s="22"/>
+      <c r="B222" s="22"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="24"/>
-      <c r="B223" s="24"/>
+      <c r="A223" s="22"/>
+      <c r="B223" s="22"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="24"/>
-      <c r="B224" s="24"/>
+      <c r="A224" s="22"/>
+      <c r="B224" s="22"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="24"/>
-      <c r="B225" s="24"/>
+      <c r="A225" s="22"/>
+      <c r="B225" s="22"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
+      <c r="A226" s="22"/>
+      <c r="B226" s="22"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
+      <c r="A227" s="22"/>
+      <c r="B227" s="22"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
+      <c r="A228" s="22"/>
+      <c r="B228" s="22"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
+      <c r="A229" s="22"/>
+      <c r="B229" s="22"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="24"/>
-      <c r="B233" s="24"/>
+      <c r="A233" s="22"/>
+      <c r="B233" s="22"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
+      <c r="A234" s="22"/>
+      <c r="B234" s="22"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
+      <c r="A235" s="22"/>
+      <c r="B235" s="22"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
+      <c r="A236" s="22"/>
+      <c r="B236" s="22"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
+      <c r="A237" s="22"/>
+      <c r="B237" s="22"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
+      <c r="A238" s="22"/>
+      <c r="B238" s="22"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
+      <c r="A239" s="22"/>
+      <c r="B239" s="22"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
+      <c r="A240" s="22"/>
+      <c r="B240" s="22"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="24"/>
-      <c r="B244" s="24"/>
+      <c r="A244" s="22"/>
+      <c r="B244" s="22"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="24"/>
-      <c r="B245" s="24"/>
+      <c r="A245" s="22"/>
+      <c r="B245" s="22"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="24"/>
-      <c r="B246" s="24"/>
+      <c r="A246" s="22"/>
+      <c r="B246" s="22"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="24"/>
-      <c r="B247" s="24"/>
+      <c r="A247" s="22"/>
+      <c r="B247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="24"/>
-      <c r="B248" s="24"/>
+      <c r="A248" s="22"/>
+      <c r="B248" s="22"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="24"/>
-      <c r="B249" s="24"/>
+      <c r="A249" s="22"/>
+      <c r="B249" s="22"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
+      <c r="A251" s="22"/>
+      <c r="B251" s="22"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="24"/>
-      <c r="B253" s="24"/>
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="24"/>
-      <c r="B255" s="24"/>
+      <c r="A255" s="22"/>
+      <c r="B255" s="22"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="24"/>
-      <c r="B256" s="24"/>
+      <c r="A256" s="22"/>
+      <c r="B256" s="22"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="24"/>
-      <c r="B257" s="24"/>
+      <c r="A257" s="22"/>
+      <c r="B257" s="22"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="24"/>
-      <c r="B258" s="24"/>
+      <c r="A258" s="22"/>
+      <c r="B258" s="22"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="24"/>
-      <c r="B259" s="24"/>
+      <c r="A259" s="22"/>
+      <c r="B259" s="22"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="24"/>
-      <c r="B260" s="24"/>
+      <c r="A260" s="22"/>
+      <c r="B260" s="22"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="24"/>
-      <c r="B261" s="24"/>
+      <c r="A261" s="22"/>
+      <c r="B261" s="22"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="24"/>
-      <c r="B262" s="24"/>
+      <c r="A262" s="22"/>
+      <c r="B262" s="22"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="24"/>
-      <c r="B263" s="24"/>
+      <c r="A263" s="22"/>
+      <c r="B263" s="22"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="24"/>
-      <c r="B264" s="24"/>
+      <c r="A264" s="22"/>
+      <c r="B264" s="22"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="24"/>
-      <c r="B265" s="24"/>
+      <c r="A265" s="22"/>
+      <c r="B265" s="22"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="24"/>
-      <c r="B266" s="24"/>
+      <c r="A266" s="22"/>
+      <c r="B266" s="22"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="24"/>
-      <c r="B267" s="24"/>
+      <c r="A267" s="22"/>
+      <c r="B267" s="22"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="24"/>
-      <c r="B268" s="24"/>
+      <c r="A268" s="22"/>
+      <c r="B268" s="22"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="24"/>
-      <c r="B269" s="24"/>
+      <c r="A269" s="22"/>
+      <c r="B269" s="22"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="24"/>
-      <c r="B270" s="24"/>
+      <c r="A270" s="22"/>
+      <c r="B270" s="22"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="24"/>
-      <c r="B271" s="24"/>
+      <c r="A271" s="22"/>
+      <c r="B271" s="22"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="24"/>
-      <c r="B272" s="24"/>
+      <c r="A272" s="22"/>
+      <c r="B272" s="22"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="24"/>
-      <c r="B273" s="24"/>
+      <c r="A273" s="22"/>
+      <c r="B273" s="22"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="24"/>
-      <c r="B274" s="24"/>
+      <c r="A274" s="22"/>
+      <c r="B274" s="22"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="24"/>
-      <c r="B275" s="24"/>
+      <c r="A275" s="22"/>
+      <c r="B275" s="22"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="24"/>
-      <c r="B276" s="24"/>
+      <c r="A276" s="22"/>
+      <c r="B276" s="22"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="24"/>
-      <c r="B277" s="24"/>
+      <c r="A277" s="22"/>
+      <c r="B277" s="22"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="24"/>
-      <c r="B278" s="24"/>
+      <c r="A278" s="22"/>
+      <c r="B278" s="22"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="24"/>
-      <c r="B279" s="24"/>
+      <c r="A279" s="22"/>
+      <c r="B279" s="22"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="24"/>
-      <c r="B280" s="24"/>
+      <c r="A280" s="22"/>
+      <c r="B280" s="22"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="24"/>
-      <c r="B281" s="24"/>
+      <c r="A281" s="22"/>
+      <c r="B281" s="22"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="24"/>
-      <c r="B282" s="24"/>
+      <c r="A282" s="22"/>
+      <c r="B282" s="22"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="24"/>
-      <c r="B283" s="24"/>
+      <c r="A283" s="22"/>
+      <c r="B283" s="22"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="24"/>
-      <c r="B284" s="24"/>
+      <c r="A284" s="22"/>
+      <c r="B284" s="22"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="24"/>
-      <c r="B285" s="24"/>
+      <c r="A285" s="22"/>
+      <c r="B285" s="22"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="24"/>
-      <c r="B286" s="24"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="22"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="24"/>
-      <c r="B287" s="24"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="22"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="24"/>
-      <c r="B288" s="24"/>
+      <c r="A288" s="22"/>
+      <c r="B288" s="22"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="24"/>
-      <c r="B289" s="24"/>
+      <c r="A289" s="22"/>
+      <c r="B289" s="22"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="24"/>
-      <c r="B290" s="24"/>
+      <c r="A290" s="22"/>
+      <c r="B290" s="22"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="24"/>
-      <c r="B291" s="24"/>
+      <c r="A291" s="22"/>
+      <c r="B291" s="22"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="24"/>
-      <c r="B292" s="24"/>
+      <c r="A292" s="22"/>
+      <c r="B292" s="22"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="24"/>
-      <c r="B293" s="24"/>
+      <c r="A293" s="22"/>
+      <c r="B293" s="22"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="24"/>
-      <c r="B294" s="24"/>
+      <c r="A294" s="22"/>
+      <c r="B294" s="22"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="24"/>
-      <c r="B295" s="24"/>
+      <c r="A295" s="22"/>
+      <c r="B295" s="22"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="24"/>
-      <c r="B296" s="24"/>
+      <c r="A296" s="22"/>
+      <c r="B296" s="22"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="24"/>
-      <c r="B297" s="24"/>
+      <c r="A297" s="22"/>
+      <c r="B297" s="22"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="24"/>
-      <c r="B298" s="24"/>
+      <c r="A298" s="22"/>
+      <c r="B298" s="22"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="24"/>
-      <c r="B299" s="24"/>
+      <c r="A299" s="22"/>
+      <c r="B299" s="22"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="24"/>
-      <c r="B300" s="24"/>
+      <c r="A300" s="22"/>
+      <c r="B300" s="22"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="24"/>
-      <c r="B301" s="24"/>
+      <c r="A301" s="22"/>
+      <c r="B301" s="22"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="24"/>
-      <c r="B302" s="24"/>
+      <c r="A302" s="22"/>
+      <c r="B302" s="22"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="24"/>
-      <c r="B303" s="24"/>
+      <c r="A303" s="22"/>
+      <c r="B303" s="22"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="24"/>
-      <c r="B304" s="24"/>
+      <c r="A304" s="22"/>
+      <c r="B304" s="22"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="24"/>
-      <c r="B305" s="24"/>
+      <c r="A305" s="22"/>
+      <c r="B305" s="22"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="24"/>
-      <c r="B306" s="24"/>
+      <c r="A306" s="22"/>
+      <c r="B306" s="22"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="24"/>
-      <c r="B307" s="24"/>
+      <c r="A307" s="22"/>
+      <c r="B307" s="22"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="24"/>
-      <c r="B308" s="24"/>
+      <c r="A308" s="22"/>
+      <c r="B308" s="22"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="24"/>
-      <c r="B309" s="24"/>
+      <c r="A309" s="22"/>
+      <c r="B309" s="22"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="24"/>
-      <c r="B310" s="24"/>
+      <c r="A310" s="22"/>
+      <c r="B310" s="22"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="24"/>
-      <c r="B311" s="24"/>
+      <c r="A311" s="22"/>
+      <c r="B311" s="22"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="24"/>
-      <c r="B312" s="24"/>
+      <c r="A312" s="22"/>
+      <c r="B312" s="22"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="24"/>
-      <c r="B313" s="24"/>
+      <c r="A313" s="22"/>
+      <c r="B313" s="22"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="24"/>
-      <c r="B314" s="24"/>
+      <c r="A314" s="22"/>
+      <c r="B314" s="22"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="24"/>
-      <c r="B315" s="24"/>
+      <c r="A315" s="22"/>
+      <c r="B315" s="22"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="24"/>
-      <c r="B316" s="24"/>
+      <c r="A316" s="22"/>
+      <c r="B316" s="22"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="24"/>
-      <c r="B317" s="24"/>
+      <c r="A317" s="22"/>
+      <c r="B317" s="22"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="24"/>
-      <c r="B318" s="24"/>
+      <c r="A318" s="22"/>
+      <c r="B318" s="22"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="24"/>
-      <c r="B319" s="24"/>
+      <c r="A319" s="22"/>
+      <c r="B319" s="22"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="24"/>
-      <c r="B320" s="24"/>
+      <c r="A320" s="22"/>
+      <c r="B320" s="22"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="24"/>
-      <c r="B321" s="24"/>
+      <c r="A321" s="22"/>
+      <c r="B321" s="22"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="24"/>
-      <c r="B322" s="24"/>
+      <c r="A322" s="22"/>
+      <c r="B322" s="22"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="24"/>
-      <c r="B323" s="24"/>
+      <c r="A323" s="22"/>
+      <c r="B323" s="22"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="24"/>
-      <c r="B324" s="24"/>
+      <c r="A324" s="22"/>
+      <c r="B324" s="22"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="24"/>
-      <c r="B325" s="24"/>
+      <c r="A325" s="22"/>
+      <c r="B325" s="22"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="24"/>
-      <c r="B326" s="24"/>
+      <c r="A326" s="22"/>
+      <c r="B326" s="22"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="24"/>
-      <c r="B327" s="24"/>
+      <c r="A327" s="22"/>
+      <c r="B327" s="22"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="24"/>
-      <c r="B328" s="24"/>
+      <c r="A328" s="22"/>
+      <c r="B328" s="22"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="24"/>
-      <c r="B329" s="24"/>
+      <c r="A329" s="22"/>
+      <c r="B329" s="22"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="24"/>
-      <c r="B330" s="24"/>
+      <c r="A330" s="22"/>
+      <c r="B330" s="22"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="24"/>
-      <c r="B331" s="24"/>
+      <c r="A331" s="22"/>
+      <c r="B331" s="22"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="24"/>
-      <c r="B332" s="24"/>
+      <c r="A332" s="22"/>
+      <c r="B332" s="22"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="24"/>
-      <c r="B333" s="24"/>
+      <c r="A333" s="22"/>
+      <c r="B333" s="22"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="24"/>
-      <c r="B334" s="24"/>
+      <c r="A334" s="22"/>
+      <c r="B334" s="22"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="24"/>
-      <c r="B335" s="24"/>
+      <c r="A335" s="22"/>
+      <c r="B335" s="22"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="24"/>
-      <c r="B336" s="24"/>
+      <c r="A336" s="22"/>
+      <c r="B336" s="22"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="24"/>
-      <c r="B337" s="24"/>
+      <c r="A337" s="22"/>
+      <c r="B337" s="22"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="24"/>
-      <c r="B338" s="24"/>
+      <c r="A338" s="22"/>
+      <c r="B338" s="22"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="24"/>
-      <c r="B339" s="24"/>
+      <c r="A339" s="22"/>
+      <c r="B339" s="22"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="24"/>
-      <c r="B340" s="24"/>
+      <c r="A340" s="22"/>
+      <c r="B340" s="22"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="A341" s="24"/>
-      <c r="B341" s="24"/>
+      <c r="A341" s="22"/>
+      <c r="B341" s="22"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="A342" s="24"/>
-      <c r="B342" s="24"/>
+      <c r="A342" s="22"/>
+      <c r="B342" s="22"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="A343" s="24"/>
-      <c r="B343" s="24"/>
+      <c r="A343" s="22"/>
+      <c r="B343" s="22"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="A344" s="24"/>
-      <c r="B344" s="24"/>
+      <c r="A344" s="22"/>
+      <c r="B344" s="22"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="A345" s="24"/>
-      <c r="B345" s="24"/>
+      <c r="A345" s="22"/>
+      <c r="B345" s="22"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="A346" s="24"/>
-      <c r="B346" s="24"/>
+      <c r="A346" s="22"/>
+      <c r="B346" s="22"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="A347" s="24"/>
-      <c r="B347" s="24"/>
+      <c r="A347" s="22"/>
+      <c r="B347" s="22"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="A348" s="24"/>
-      <c r="B348" s="24"/>
+      <c r="A348" s="22"/>
+      <c r="B348" s="22"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="A349" s="24"/>
-      <c r="B349" s="24"/>
+      <c r="A349" s="22"/>
+      <c r="B349" s="22"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="A350" s="24"/>
-      <c r="B350" s="24"/>
+      <c r="A350" s="22"/>
+      <c r="B350" s="22"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="A351" s="24"/>
-      <c r="B351" s="24"/>
+      <c r="A351" s="22"/>
+      <c r="B351" s="22"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="A352" s="24"/>
-      <c r="B352" s="24"/>
+      <c r="A352" s="22"/>
+      <c r="B352" s="22"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="A353" s="24"/>
-      <c r="B353" s="24"/>
+      <c r="A353" s="22"/>
+      <c r="B353" s="22"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="A354" s="24"/>
-      <c r="B354" s="24"/>
+      <c r="A354" s="22"/>
+      <c r="B354" s="22"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="A355" s="24"/>
-      <c r="B355" s="24"/>
+      <c r="A355" s="22"/>
+      <c r="B355" s="22"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="A356" s="24"/>
-      <c r="B356" s="24"/>
+      <c r="A356" s="22"/>
+      <c r="B356" s="22"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="A357" s="24"/>
-      <c r="B357" s="24"/>
+      <c r="A357" s="22"/>
+      <c r="B357" s="22"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="A358" s="24"/>
-      <c r="B358" s="24"/>
+      <c r="A358" s="22"/>
+      <c r="B358" s="22"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="A359" s="24"/>
-      <c r="B359" s="24"/>
+      <c r="A359" s="22"/>
+      <c r="B359" s="22"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="A360" s="24"/>
-      <c r="B360" s="24"/>
+      <c r="A360" s="22"/>
+      <c r="B360" s="22"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="A361" s="24"/>
-      <c r="B361" s="24"/>
+      <c r="A361" s="22"/>
+      <c r="B361" s="22"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="A362" s="24"/>
-      <c r="B362" s="24"/>
+      <c r="A362" s="22"/>
+      <c r="B362" s="22"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="A363" s="24"/>
-      <c r="B363" s="24"/>
+      <c r="A363" s="22"/>
+      <c r="B363" s="22"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="A364" s="24"/>
-      <c r="B364" s="24"/>
+      <c r="A364" s="22"/>
+      <c r="B364" s="22"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="A365" s="24"/>
-      <c r="B365" s="24"/>
+      <c r="A365" s="22"/>
+      <c r="B365" s="22"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="A366" s="24"/>
-      <c r="B366" s="24"/>
+      <c r="A366" s="22"/>
+      <c r="B366" s="22"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="A367" s="24"/>
-      <c r="B367" s="24"/>
+      <c r="A367" s="22"/>
+      <c r="B367" s="22"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="A368" s="24"/>
-      <c r="B368" s="24"/>
+      <c r="A368" s="22"/>
+      <c r="B368" s="22"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="A369" s="24"/>
-      <c r="B369" s="24"/>
+      <c r="A369" s="22"/>
+      <c r="B369" s="22"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="A370" s="24"/>
-      <c r="B370" s="24"/>
+      <c r="A370" s="22"/>
+      <c r="B370" s="22"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="A371" s="24"/>
-      <c r="B371" s="24"/>
+      <c r="A371" s="22"/>
+      <c r="B371" s="22"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="A372" s="24"/>
-      <c r="B372" s="24"/>
+      <c r="A372" s="22"/>
+      <c r="B372" s="22"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="A373" s="24"/>
-      <c r="B373" s="24"/>
+      <c r="A373" s="22"/>
+      <c r="B373" s="22"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="A374" s="24"/>
-      <c r="B374" s="24"/>
+      <c r="A374" s="22"/>
+      <c r="B374" s="22"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="A375" s="24"/>
-      <c r="B375" s="24"/>
+      <c r="A375" s="22"/>
+      <c r="B375" s="22"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="A376" s="24"/>
-      <c r="B376" s="24"/>
+      <c r="A376" s="22"/>
+      <c r="B376" s="22"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="A377" s="24"/>
-      <c r="B377" s="24"/>
+      <c r="A377" s="22"/>
+      <c r="B377" s="22"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="A378" s="24"/>
-      <c r="B378" s="24"/>
+      <c r="A378" s="22"/>
+      <c r="B378" s="22"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="A379" s="24"/>
-      <c r="B379" s="24"/>
+      <c r="A379" s="22"/>
+      <c r="B379" s="22"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="A380" s="24"/>
-      <c r="B380" s="24"/>
+      <c r="A380" s="22"/>
+      <c r="B380" s="22"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="A381" s="24"/>
-      <c r="B381" s="24"/>
+      <c r="A381" s="22"/>
+      <c r="B381" s="22"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="A382" s="24"/>
-      <c r="B382" s="24"/>
+      <c r="A382" s="22"/>
+      <c r="B382" s="22"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="A383" s="24"/>
-      <c r="B383" s="24"/>
+      <c r="A383" s="22"/>
+      <c r="B383" s="22"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="A384" s="24"/>
-      <c r="B384" s="24"/>
+      <c r="A384" s="22"/>
+      <c r="B384" s="22"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="A385" s="24"/>
-      <c r="B385" s="24"/>
+      <c r="A385" s="22"/>
+      <c r="B385" s="22"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="A386" s="24"/>
-      <c r="B386" s="24"/>
+      <c r="A386" s="22"/>
+      <c r="B386" s="22"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="A387" s="24"/>
-      <c r="B387" s="24"/>
+      <c r="A387" s="22"/>
+      <c r="B387" s="22"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="A388" s="24"/>
-      <c r="B388" s="24"/>
+      <c r="A388" s="22"/>
+      <c r="B388" s="22"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="A389" s="24"/>
-      <c r="B389" s="24"/>
+      <c r="A389" s="22"/>
+      <c r="B389" s="22"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="A390" s="24"/>
-      <c r="B390" s="24"/>
+      <c r="A390" s="22"/>
+      <c r="B390" s="22"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="A391" s="24"/>
-      <c r="B391" s="24"/>
+      <c r="A391" s="22"/>
+      <c r="B391" s="22"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="A392" s="24"/>
-      <c r="B392" s="24"/>
+      <c r="A392" s="22"/>
+      <c r="B392" s="22"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="A393" s="24"/>
-      <c r="B393" s="24"/>
+      <c r="A393" s="22"/>
+      <c r="B393" s="22"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="A394" s="24"/>
-      <c r="B394" s="24"/>
+      <c r="A394" s="22"/>
+      <c r="B394" s="22"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="A395" s="24"/>
-      <c r="B395" s="24"/>
+      <c r="A395" s="22"/>
+      <c r="B395" s="22"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="A396" s="24"/>
-      <c r="B396" s="24"/>
+      <c r="A396" s="22"/>
+      <c r="B396" s="22"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="A397" s="24"/>
-      <c r="B397" s="24"/>
+      <c r="A397" s="22"/>
+      <c r="B397" s="22"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="A398" s="24"/>
-      <c r="B398" s="24"/>
+      <c r="A398" s="22"/>
+      <c r="B398" s="22"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="A399" s="24"/>
-      <c r="B399" s="24"/>
+      <c r="A399" s="22"/>
+      <c r="B399" s="22"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="A400" s="24"/>
-      <c r="B400" s="24"/>
+      <c r="A400" s="22"/>
+      <c r="B400" s="22"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="A401" s="24"/>
-      <c r="B401" s="24"/>
+      <c r="A401" s="22"/>
+      <c r="B401" s="22"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="A402" s="24"/>
-      <c r="B402" s="24"/>
+      <c r="A402" s="22"/>
+      <c r="B402" s="22"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="A403" s="24"/>
-      <c r="B403" s="24"/>
+      <c r="A403" s="22"/>
+      <c r="B403" s="22"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="A404" s="24"/>
-      <c r="B404" s="24"/>
+      <c r="A404" s="22"/>
+      <c r="B404" s="22"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="A405" s="24"/>
-      <c r="B405" s="24"/>
+      <c r="A405" s="22"/>
+      <c r="B405" s="22"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="A406" s="24"/>
-      <c r="B406" s="24"/>
+      <c r="A406" s="22"/>
+      <c r="B406" s="22"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="A407" s="24"/>
-      <c r="B407" s="24"/>
+      <c r="A407" s="22"/>
+      <c r="B407" s="22"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="A408" s="24"/>
-      <c r="B408" s="24"/>
+      <c r="A408" s="22"/>
+      <c r="B408" s="22"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="A409" s="24"/>
-      <c r="B409" s="24"/>
+      <c r="A409" s="22"/>
+      <c r="B409" s="22"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="A410" s="24"/>
-      <c r="B410" s="24"/>
+      <c r="A410" s="22"/>
+      <c r="B410" s="22"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="A411" s="24"/>
-      <c r="B411" s="24"/>
+      <c r="A411" s="22"/>
+      <c r="B411" s="22"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="A412" s="24"/>
-      <c r="B412" s="24"/>
+      <c r="A412" s="22"/>
+      <c r="B412" s="22"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="A413" s="24"/>
-      <c r="B413" s="24"/>
+      <c r="A413" s="22"/>
+      <c r="B413" s="22"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="A414" s="24"/>
-      <c r="B414" s="24"/>
+      <c r="A414" s="22"/>
+      <c r="B414" s="22"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="A415" s="24"/>
-      <c r="B415" s="24"/>
+      <c r="A415" s="22"/>
+      <c r="B415" s="22"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="A416" s="24"/>
-      <c r="B416" s="24"/>
+      <c r="A416" s="22"/>
+      <c r="B416" s="22"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="A417" s="24"/>
-      <c r="B417" s="24"/>
+      <c r="A417" s="22"/>
+      <c r="B417" s="22"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="A418" s="24"/>
-      <c r="B418" s="24"/>
+      <c r="A418" s="22"/>
+      <c r="B418" s="22"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="A419" s="24"/>
-      <c r="B419" s="24"/>
+      <c r="A419" s="22"/>
+      <c r="B419" s="22"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="A420" s="24"/>
-      <c r="B420" s="24"/>
+      <c r="A420" s="22"/>
+      <c r="B420" s="22"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="A421" s="24"/>
-      <c r="B421" s="24"/>
+      <c r="A421" s="22"/>
+      <c r="B421" s="22"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="A422" s="24"/>
-      <c r="B422" s="24"/>
+      <c r="A422" s="22"/>
+      <c r="B422" s="22"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="A423" s="24"/>
-      <c r="B423" s="24"/>
+      <c r="A423" s="22"/>
+      <c r="B423" s="22"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="A424" s="24"/>
-      <c r="B424" s="24"/>
+      <c r="A424" s="22"/>
+      <c r="B424" s="22"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="A425" s="24"/>
-      <c r="B425" s="24"/>
+      <c r="A425" s="22"/>
+      <c r="B425" s="22"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="A426" s="24"/>
-      <c r="B426" s="24"/>
+      <c r="A426" s="22"/>
+      <c r="B426" s="22"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="24"/>
-      <c r="B427" s="24"/>
+      <c r="A427" s="22"/>
+      <c r="B427" s="22"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="A428" s="24"/>
-      <c r="B428" s="24"/>
+      <c r="A428" s="22"/>
+      <c r="B428" s="22"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="A429" s="24"/>
-      <c r="B429" s="24"/>
+      <c r="A429" s="22"/>
+      <c r="B429" s="22"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="A430" s="24"/>
-      <c r="B430" s="24"/>
+      <c r="A430" s="22"/>
+      <c r="B430" s="22"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="A431" s="24"/>
-      <c r="B431" s="24"/>
+      <c r="A431" s="22"/>
+      <c r="B431" s="22"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="A432" s="24"/>
-      <c r="B432" s="24"/>
+      <c r="A432" s="22"/>
+      <c r="B432" s="22"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="A433" s="24"/>
-      <c r="B433" s="24"/>
+      <c r="A433" s="22"/>
+      <c r="B433" s="22"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="A434" s="24"/>
-      <c r="B434" s="24"/>
+      <c r="A434" s="22"/>
+      <c r="B434" s="22"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="A435" s="24"/>
-      <c r="B435" s="24"/>
+      <c r="A435" s="22"/>
+      <c r="B435" s="22"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="A436" s="24"/>
-      <c r="B436" s="24"/>
+      <c r="A436" s="22"/>
+      <c r="B436" s="22"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="A437" s="24"/>
-      <c r="B437" s="24"/>
+      <c r="A437" s="22"/>
+      <c r="B437" s="22"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="A438" s="24"/>
-      <c r="B438" s="24"/>
+      <c r="A438" s="22"/>
+      <c r="B438" s="22"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="A439" s="24"/>
-      <c r="B439" s="24"/>
+      <c r="A439" s="22"/>
+      <c r="B439" s="22"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="A440" s="24"/>
-      <c r="B440" s="24"/>
+      <c r="A440" s="22"/>
+      <c r="B440" s="22"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="A441" s="24"/>
-      <c r="B441" s="24"/>
+      <c r="A441" s="22"/>
+      <c r="B441" s="22"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="A442" s="24"/>
-      <c r="B442" s="24"/>
+      <c r="A442" s="22"/>
+      <c r="B442" s="22"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="A443" s="24"/>
-      <c r="B443" s="24"/>
+      <c r="A443" s="22"/>
+      <c r="B443" s="22"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="A444" s="24"/>
-      <c r="B444" s="24"/>
+      <c r="A444" s="22"/>
+      <c r="B444" s="22"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="A445" s="24"/>
-      <c r="B445" s="24"/>
+      <c r="A445" s="22"/>
+      <c r="B445" s="22"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="A446" s="24"/>
-      <c r="B446" s="24"/>
+      <c r="A446" s="22"/>
+      <c r="B446" s="22"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="A447" s="24"/>
-      <c r="B447" s="24"/>
+      <c r="A447" s="22"/>
+      <c r="B447" s="22"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="A448" s="24"/>
-      <c r="B448" s="24"/>
+      <c r="A448" s="22"/>
+      <c r="B448" s="22"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="A449" s="24"/>
-      <c r="B449" s="24"/>
+      <c r="A449" s="22"/>
+      <c r="B449" s="22"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="A450" s="24"/>
-      <c r="B450" s="24"/>
+      <c r="A450" s="22"/>
+      <c r="B450" s="22"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="A451" s="24"/>
-      <c r="B451" s="24"/>
+      <c r="A451" s="22"/>
+      <c r="B451" s="22"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="A452" s="24"/>
-      <c r="B452" s="24"/>
+      <c r="A452" s="22"/>
+      <c r="B452" s="22"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="A453" s="24"/>
-      <c r="B453" s="24"/>
+      <c r="A453" s="22"/>
+      <c r="B453" s="22"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="A454" s="24"/>
-      <c r="B454" s="24"/>
+      <c r="A454" s="22"/>
+      <c r="B454" s="22"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="A455" s="24"/>
-      <c r="B455" s="24"/>
+      <c r="A455" s="22"/>
+      <c r="B455" s="22"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="A456" s="24"/>
-      <c r="B456" s="24"/>
+      <c r="A456" s="22"/>
+      <c r="B456" s="22"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="A457" s="24"/>
-      <c r="B457" s="24"/>
+      <c r="A457" s="22"/>
+      <c r="B457" s="22"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="A458" s="24"/>
-      <c r="B458" s="24"/>
+      <c r="A458" s="22"/>
+      <c r="B458" s="22"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="A459" s="24"/>
-      <c r="B459" s="24"/>
+      <c r="A459" s="22"/>
+      <c r="B459" s="22"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="A460" s="24"/>
-      <c r="B460" s="24"/>
+      <c r="A460" s="22"/>
+      <c r="B460" s="22"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="A461" s="24"/>
-      <c r="B461" s="24"/>
+      <c r="A461" s="22"/>
+      <c r="B461" s="22"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="A462" s="24"/>
-      <c r="B462" s="24"/>
+      <c r="A462" s="22"/>
+      <c r="B462" s="22"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="A463" s="24"/>
-      <c r="B463" s="24"/>
+      <c r="A463" s="22"/>
+      <c r="B463" s="22"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="A464" s="24"/>
-      <c r="B464" s="24"/>
+      <c r="A464" s="22"/>
+      <c r="B464" s="22"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="A465" s="24"/>
-      <c r="B465" s="24"/>
+      <c r="A465" s="22"/>
+      <c r="B465" s="22"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="A466" s="24"/>
-      <c r="B466" s="24"/>
+      <c r="A466" s="22"/>
+      <c r="B466" s="22"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="A467" s="24"/>
-      <c r="B467" s="24"/>
+      <c r="A467" s="22"/>
+      <c r="B467" s="22"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="A468" s="24"/>
-      <c r="B468" s="24"/>
+      <c r="A468" s="22"/>
+      <c r="B468" s="22"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="A469" s="24"/>
-      <c r="B469" s="24"/>
+      <c r="A469" s="22"/>
+      <c r="B469" s="22"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="A470" s="24"/>
-      <c r="B470" s="24"/>
+      <c r="A470" s="22"/>
+      <c r="B470" s="22"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="A471" s="24"/>
-      <c r="B471" s="24"/>
+      <c r="A471" s="22"/>
+      <c r="B471" s="22"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="A472" s="24"/>
-      <c r="B472" s="24"/>
+      <c r="A472" s="22"/>
+      <c r="B472" s="22"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="A473" s="24"/>
-      <c r="B473" s="24"/>
+      <c r="A473" s="22"/>
+      <c r="B473" s="22"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="A474" s="24"/>
-      <c r="B474" s="24"/>
+      <c r="A474" s="22"/>
+      <c r="B474" s="22"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="A475" s="24"/>
-      <c r="B475" s="24"/>
+      <c r="A475" s="22"/>
+      <c r="B475" s="22"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="A476" s="24"/>
-      <c r="B476" s="24"/>
+      <c r="A476" s="22"/>
+      <c r="B476" s="22"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="A477" s="24"/>
-      <c r="B477" s="24"/>
+      <c r="A477" s="22"/>
+      <c r="B477" s="22"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="A478" s="24"/>
-      <c r="B478" s="24"/>
+      <c r="A478" s="22"/>
+      <c r="B478" s="22"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="A479" s="24"/>
-      <c r="B479" s="24"/>
+      <c r="A479" s="22"/>
+      <c r="B479" s="22"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="A480" s="24"/>
-      <c r="B480" s="24"/>
+      <c r="A480" s="22"/>
+      <c r="B480" s="22"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="A481" s="24"/>
-      <c r="B481" s="24"/>
+      <c r="A481" s="22"/>
+      <c r="B481" s="22"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="A482" s="24"/>
-      <c r="B482" s="24"/>
+      <c r="A482" s="22"/>
+      <c r="B482" s="22"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="A483" s="24"/>
-      <c r="B483" s="24"/>
+      <c r="A483" s="22"/>
+      <c r="B483" s="22"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="A484" s="24"/>
-      <c r="B484" s="24"/>
+      <c r="A484" s="22"/>
+      <c r="B484" s="22"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="A485" s="24"/>
-      <c r="B485" s="24"/>
+      <c r="A485" s="22"/>
+      <c r="B485" s="22"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="A486" s="24"/>
-      <c r="B486" s="24"/>
+      <c r="A486" s="22"/>
+      <c r="B486" s="22"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="A487" s="24"/>
-      <c r="B487" s="24"/>
+      <c r="A487" s="22"/>
+      <c r="B487" s="22"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="A488" s="24"/>
-      <c r="B488" s="24"/>
+      <c r="A488" s="22"/>
+      <c r="B488" s="22"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="A489" s="24"/>
-      <c r="B489" s="24"/>
+      <c r="A489" s="22"/>
+      <c r="B489" s="22"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="A490" s="24"/>
-      <c r="B490" s="24"/>
+      <c r="A490" s="22"/>
+      <c r="B490" s="22"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="A491" s="24"/>
-      <c r="B491" s="24"/>
+      <c r="A491" s="22"/>
+      <c r="B491" s="22"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="A492" s="24"/>
-      <c r="B492" s="24"/>
+      <c r="A492" s="22"/>
+      <c r="B492" s="22"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="A493" s="24"/>
-      <c r="B493" s="24"/>
+      <c r="A493" s="22"/>
+      <c r="B493" s="22"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="A494" s="24"/>
-      <c r="B494" s="24"/>
+      <c r="A494" s="22"/>
+      <c r="B494" s="22"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="A495" s="24"/>
-      <c r="B495" s="24"/>
+      <c r="A495" s="22"/>
+      <c r="B495" s="22"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="A496" s="24"/>
-      <c r="B496" s="24"/>
+      <c r="A496" s="22"/>
+      <c r="B496" s="22"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="A497" s="24"/>
-      <c r="B497" s="24"/>
+      <c r="A497" s="22"/>
+      <c r="B497" s="22"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="A498" s="24"/>
-      <c r="B498" s="24"/>
+      <c r="A498" s="22"/>
+      <c r="B498" s="22"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="A499" s="24"/>
-      <c r="B499" s="24"/>
+      <c r="A499" s="22"/>
+      <c r="B499" s="22"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="A500" s="24"/>
-      <c r="B500" s="24"/>
+      <c r="A500" s="22"/>
+      <c r="B500" s="22"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="A501" s="24"/>
-      <c r="B501" s="24"/>
+      <c r="A501" s="22"/>
+      <c r="B501" s="22"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="A502" s="24"/>
-      <c r="B502" s="24"/>
+      <c r="A502" s="22"/>
+      <c r="B502" s="22"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="A503" s="24"/>
-      <c r="B503" s="24"/>
+      <c r="A503" s="22"/>
+      <c r="B503" s="22"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="A504" s="24"/>
-      <c r="B504" s="24"/>
+      <c r="A504" s="22"/>
+      <c r="B504" s="22"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="A505" s="24"/>
-      <c r="B505" s="24"/>
+      <c r="A505" s="22"/>
+      <c r="B505" s="22"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="A506" s="24"/>
-      <c r="B506" s="24"/>
+      <c r="A506" s="22"/>
+      <c r="B506" s="22"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="A507" s="24"/>
-      <c r="B507" s="24"/>
+      <c r="A507" s="22"/>
+      <c r="B507" s="22"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="A508" s="24"/>
-      <c r="B508" s="24"/>
+      <c r="A508" s="22"/>
+      <c r="B508" s="22"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="A509" s="24"/>
-      <c r="B509" s="24"/>
+      <c r="A509" s="22"/>
+      <c r="B509" s="22"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="A510" s="24"/>
-      <c r="B510" s="24"/>
+      <c r="A510" s="22"/>
+      <c r="B510" s="22"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="A511" s="24"/>
-      <c r="B511" s="24"/>
+      <c r="A511" s="22"/>
+      <c r="B511" s="22"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="A512" s="24"/>
-      <c r="B512" s="24"/>
+      <c r="A512" s="22"/>
+      <c r="B512" s="22"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="A513" s="24"/>
-      <c r="B513" s="24"/>
+      <c r="A513" s="22"/>
+      <c r="B513" s="22"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="A514" s="24"/>
-      <c r="B514" s="24"/>
+      <c r="A514" s="22"/>
+      <c r="B514" s="22"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="A515" s="24"/>
-      <c r="B515" s="24"/>
+      <c r="A515" s="22"/>
+      <c r="B515" s="22"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="A516" s="24"/>
-      <c r="B516" s="24"/>
+      <c r="A516" s="22"/>
+      <c r="B516" s="22"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="A517" s="24"/>
-      <c r="B517" s="24"/>
+      <c r="A517" s="22"/>
+      <c r="B517" s="22"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="A518" s="24"/>
-      <c r="B518" s="24"/>
+      <c r="A518" s="22"/>
+      <c r="B518" s="22"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="A519" s="24"/>
-      <c r="B519" s="24"/>
+      <c r="A519" s="22"/>
+      <c r="B519" s="22"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="A520" s="24"/>
-      <c r="B520" s="24"/>
+      <c r="A520" s="22"/>
+      <c r="B520" s="22"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="A521" s="24"/>
-      <c r="B521" s="24"/>
+      <c r="A521" s="22"/>
+      <c r="B521" s="22"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="A522" s="24"/>
-      <c r="B522" s="24"/>
+      <c r="A522" s="22"/>
+      <c r="B522" s="22"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="A523" s="24"/>
-      <c r="B523" s="24"/>
+      <c r="A523" s="22"/>
+      <c r="B523" s="22"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="A524" s="24"/>
-      <c r="B524" s="24"/>
+      <c r="A524" s="22"/>
+      <c r="B524" s="22"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="A525" s="24"/>
-      <c r="B525" s="24"/>
+      <c r="A525" s="22"/>
+      <c r="B525" s="22"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="A526" s="24"/>
-      <c r="B526" s="24"/>
+      <c r="A526" s="22"/>
+      <c r="B526" s="22"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="A527" s="24"/>
-      <c r="B527" s="24"/>
+      <c r="A527" s="22"/>
+      <c r="B527" s="22"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="A528" s="24"/>
-      <c r="B528" s="24"/>
+      <c r="A528" s="22"/>
+      <c r="B528" s="22"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="A529" s="24"/>
-      <c r="B529" s="24"/>
+      <c r="A529" s="22"/>
+      <c r="B529" s="22"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="A530" s="24"/>
-      <c r="B530" s="24"/>
+      <c r="A530" s="22"/>
+      <c r="B530" s="22"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="A531" s="24"/>
-      <c r="B531" s="24"/>
+      <c r="A531" s="22"/>
+      <c r="B531" s="22"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="A532" s="24"/>
-      <c r="B532" s="24"/>
+      <c r="A532" s="22"/>
+      <c r="B532" s="22"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="A533" s="24"/>
-      <c r="B533" s="24"/>
+      <c r="A533" s="22"/>
+      <c r="B533" s="22"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="A534" s="24"/>
-      <c r="B534" s="24"/>
+      <c r="A534" s="22"/>
+      <c r="B534" s="22"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="A535" s="24"/>
-      <c r="B535" s="24"/>
+      <c r="A535" s="22"/>
+      <c r="B535" s="22"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="A536" s="24"/>
-      <c r="B536" s="24"/>
+      <c r="A536" s="22"/>
+      <c r="B536" s="22"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="A537" s="24"/>
-      <c r="B537" s="24"/>
+      <c r="A537" s="22"/>
+      <c r="B537" s="22"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="A538" s="24"/>
-      <c r="B538" s="24"/>
+      <c r="A538" s="22"/>
+      <c r="B538" s="22"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="A539" s="24"/>
-      <c r="B539" s="24"/>
+      <c r="A539" s="22"/>
+      <c r="B539" s="22"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="A540" s="24"/>
-      <c r="B540" s="24"/>
+      <c r="A540" s="22"/>
+      <c r="B540" s="22"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="A541" s="24"/>
-      <c r="B541" s="24"/>
+      <c r="A541" s="22"/>
+      <c r="B541" s="22"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="A542" s="24"/>
-      <c r="B542" s="24"/>
+      <c r="A542" s="22"/>
+      <c r="B542" s="22"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="A543" s="24"/>
-      <c r="B543" s="24"/>
+      <c r="A543" s="22"/>
+      <c r="B543" s="22"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="A544" s="24"/>
-      <c r="B544" s="24"/>
+      <c r="A544" s="22"/>
+      <c r="B544" s="22"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="A545" s="24"/>
-      <c r="B545" s="24"/>
+      <c r="A545" s="22"/>
+      <c r="B545" s="22"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="A546" s="24"/>
-      <c r="B546" s="24"/>
+      <c r="A546" s="22"/>
+      <c r="B546" s="22"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="A547" s="24"/>
-      <c r="B547" s="24"/>
+      <c r="A547" s="22"/>
+      <c r="B547" s="22"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="A548" s="24"/>
-      <c r="B548" s="24"/>
+      <c r="A548" s="22"/>
+      <c r="B548" s="22"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="A549" s="24"/>
-      <c r="B549" s="24"/>
+      <c r="A549" s="22"/>
+      <c r="B549" s="22"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="A550" s="24"/>
-      <c r="B550" s="24"/>
+      <c r="A550" s="22"/>
+      <c r="B550" s="22"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="A551" s="24"/>
-      <c r="B551" s="24"/>
+      <c r="A551" s="22"/>
+      <c r="B551" s="22"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="A552" s="24"/>
-      <c r="B552" s="24"/>
+      <c r="A552" s="22"/>
+      <c r="B552" s="22"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="A553" s="24"/>
-      <c r="B553" s="24"/>
+      <c r="A553" s="22"/>
+      <c r="B553" s="22"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="A554" s="24"/>
-      <c r="B554" s="24"/>
+      <c r="A554" s="22"/>
+      <c r="B554" s="22"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="A555" s="24"/>
-      <c r="B555" s="24"/>
+      <c r="A555" s="22"/>
+      <c r="B555" s="22"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="A556" s="24"/>
-      <c r="B556" s="24"/>
+      <c r="A556" s="22"/>
+      <c r="B556" s="22"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="A557" s="24"/>
-      <c r="B557" s="24"/>
+      <c r="A557" s="22"/>
+      <c r="B557" s="22"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="A558" s="24"/>
-      <c r="B558" s="24"/>
+      <c r="A558" s="22"/>
+      <c r="B558" s="22"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="A559" s="24"/>
-      <c r="B559" s="24"/>
+      <c r="A559" s="22"/>
+      <c r="B559" s="22"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="A560" s="24"/>
-      <c r="B560" s="24"/>
+      <c r="A560" s="22"/>
+      <c r="B560" s="22"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="A561" s="24"/>
-      <c r="B561" s="24"/>
+      <c r="A561" s="22"/>
+      <c r="B561" s="22"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="A562" s="24"/>
-      <c r="B562" s="24"/>
+      <c r="A562" s="22"/>
+      <c r="B562" s="22"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="A563" s="24"/>
-      <c r="B563" s="24"/>
+      <c r="A563" s="22"/>
+      <c r="B563" s="22"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="A564" s="24"/>
-      <c r="B564" s="24"/>
+      <c r="A564" s="22"/>
+      <c r="B564" s="22"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="A565" s="24"/>
-      <c r="B565" s="24"/>
+      <c r="A565" s="22"/>
+      <c r="B565" s="22"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="A566" s="24"/>
-      <c r="B566" s="24"/>
+      <c r="A566" s="22"/>
+      <c r="B566" s="22"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="A567" s="24"/>
-      <c r="B567" s="24"/>
+      <c r="A567" s="22"/>
+      <c r="B567" s="22"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="A568" s="24"/>
-      <c r="B568" s="24"/>
+      <c r="A568" s="22"/>
+      <c r="B568" s="22"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="A569" s="24"/>
-      <c r="B569" s="24"/>
+      <c r="A569" s="22"/>
+      <c r="B569" s="22"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="A570" s="24"/>
-      <c r="B570" s="24"/>
+      <c r="A570" s="22"/>
+      <c r="B570" s="22"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="A571" s="24"/>
-      <c r="B571" s="24"/>
+      <c r="A571" s="22"/>
+      <c r="B571" s="22"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="A572" s="24"/>
-      <c r="B572" s="24"/>
+      <c r="A572" s="22"/>
+      <c r="B572" s="22"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="A573" s="24"/>
-      <c r="B573" s="24"/>
+      <c r="A573" s="22"/>
+      <c r="B573" s="22"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="A574" s="24"/>
-      <c r="B574" s="24"/>
+      <c r="A574" s="22"/>
+      <c r="B574" s="22"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="A575" s="24"/>
-      <c r="B575" s="24"/>
+      <c r="A575" s="22"/>
+      <c r="B575" s="22"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="A576" s="24"/>
-      <c r="B576" s="24"/>
+      <c r="A576" s="22"/>
+      <c r="B576" s="22"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="A577" s="24"/>
-      <c r="B577" s="24"/>
+      <c r="A577" s="22"/>
+      <c r="B577" s="22"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="A578" s="24"/>
-      <c r="B578" s="24"/>
+      <c r="A578" s="22"/>
+      <c r="B578" s="22"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="A579" s="24"/>
-      <c r="B579" s="24"/>
+      <c r="A579" s="22"/>
+      <c r="B579" s="22"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="A580" s="24"/>
-      <c r="B580" s="24"/>
+      <c r="A580" s="22"/>
+      <c r="B580" s="22"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="A581" s="24"/>
-      <c r="B581" s="24"/>
+      <c r="A581" s="22"/>
+      <c r="B581" s="22"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="A582" s="24"/>
-      <c r="B582" s="24"/>
+      <c r="A582" s="22"/>
+      <c r="B582" s="22"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="A583" s="24"/>
-      <c r="B583" s="24"/>
+      <c r="A583" s="22"/>
+      <c r="B583" s="22"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="A584" s="24"/>
-      <c r="B584" s="24"/>
+      <c r="A584" s="22"/>
+      <c r="B584" s="22"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="A585" s="24"/>
-      <c r="B585" s="24"/>
+      <c r="A585" s="22"/>
+      <c r="B585" s="22"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="A586" s="24"/>
-      <c r="B586" s="24"/>
+      <c r="A586" s="22"/>
+      <c r="B586" s="22"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="A587" s="24"/>
-      <c r="B587" s="24"/>
+      <c r="A587" s="22"/>
+      <c r="B587" s="22"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="A588" s="24"/>
-      <c r="B588" s="24"/>
+      <c r="A588" s="22"/>
+      <c r="B588" s="22"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="A589" s="24"/>
-      <c r="B589" s="24"/>
+      <c r="A589" s="22"/>
+      <c r="B589" s="22"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="A590" s="24"/>
-      <c r="B590" s="24"/>
+      <c r="A590" s="22"/>
+      <c r="B590" s="22"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="A591" s="24"/>
-      <c r="B591" s="24"/>
+      <c r="A591" s="22"/>
+      <c r="B591" s="22"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="A592" s="24"/>
-      <c r="B592" s="24"/>
+      <c r="A592" s="22"/>
+      <c r="B592" s="22"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="A593" s="24"/>
-      <c r="B593" s="24"/>
+      <c r="A593" s="22"/>
+      <c r="B593" s="22"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="A594" s="24"/>
-      <c r="B594" s="24"/>
+      <c r="A594" s="22"/>
+      <c r="B594" s="22"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="A595" s="24"/>
-      <c r="B595" s="24"/>
+      <c r="A595" s="22"/>
+      <c r="B595" s="22"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="A596" s="24"/>
-      <c r="B596" s="24"/>
+      <c r="A596" s="22"/>
+      <c r="B596" s="22"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="A597" s="24"/>
-      <c r="B597" s="24"/>
+      <c r="A597" s="22"/>
+      <c r="B597" s="22"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="A598" s="24"/>
-      <c r="B598" s="24"/>
+      <c r="A598" s="22"/>
+      <c r="B598" s="22"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="A599" s="24"/>
-      <c r="B599" s="24"/>
+      <c r="A599" s="22"/>
+      <c r="B599" s="22"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="A600" s="24"/>
-      <c r="B600" s="24"/>
+      <c r="A600" s="22"/>
+      <c r="B600" s="22"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="A601" s="24"/>
-      <c r="B601" s="24"/>
+      <c r="A601" s="22"/>
+      <c r="B601" s="22"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="A602" s="24"/>
-      <c r="B602" s="24"/>
+      <c r="A602" s="22"/>
+      <c r="B602" s="22"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="A603" s="24"/>
-      <c r="B603" s="24"/>
+      <c r="A603" s="22"/>
+      <c r="B603" s="22"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="A604" s="24"/>
-      <c r="B604" s="24"/>
+      <c r="A604" s="22"/>
+      <c r="B604" s="22"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="A605" s="24"/>
-      <c r="B605" s="24"/>
+      <c r="A605" s="22"/>
+      <c r="B605" s="22"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="A606" s="24"/>
-      <c r="B606" s="24"/>
+      <c r="A606" s="22"/>
+      <c r="B606" s="22"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="A607" s="24"/>
-      <c r="B607" s="24"/>
+      <c r="A607" s="22"/>
+      <c r="B607" s="22"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="A608" s="24"/>
-      <c r="B608" s="24"/>
+      <c r="A608" s="22"/>
+      <c r="B608" s="22"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="A609" s="24"/>
-      <c r="B609" s="24"/>
+      <c r="A609" s="22"/>
+      <c r="B609" s="22"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="A610" s="24"/>
-      <c r="B610" s="24"/>
+      <c r="A610" s="22"/>
+      <c r="B610" s="22"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="A611" s="24"/>
-      <c r="B611" s="24"/>
+      <c r="A611" s="22"/>
+      <c r="B611" s="22"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="A612" s="24"/>
-      <c r="B612" s="24"/>
+      <c r="A612" s="22"/>
+      <c r="B612" s="22"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="A613" s="24"/>
-      <c r="B613" s="24"/>
+      <c r="A613" s="22"/>
+      <c r="B613" s="22"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="A614" s="24"/>
-      <c r="B614" s="24"/>
+      <c r="A614" s="22"/>
+      <c r="B614" s="22"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="A615" s="24"/>
-      <c r="B615" s="24"/>
+      <c r="A615" s="22"/>
+      <c r="B615" s="22"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="A616" s="24"/>
-      <c r="B616" s="24"/>
+      <c r="A616" s="22"/>
+      <c r="B616" s="22"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="A617" s="24"/>
-      <c r="B617" s="24"/>
+      <c r="A617" s="22"/>
+      <c r="B617" s="22"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="A618" s="24"/>
-      <c r="B618" s="24"/>
+      <c r="A618" s="22"/>
+      <c r="B618" s="22"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="A619" s="24"/>
-      <c r="B619" s="24"/>
+      <c r="A619" s="22"/>
+      <c r="B619" s="22"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="A620" s="24"/>
-      <c r="B620" s="24"/>
+      <c r="A620" s="22"/>
+      <c r="B620" s="22"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="A621" s="24"/>
-      <c r="B621" s="24"/>
+      <c r="A621" s="22"/>
+      <c r="B621" s="22"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="A622" s="24"/>
-      <c r="B622" s="24"/>
+      <c r="A622" s="22"/>
+      <c r="B622" s="22"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="A623" s="24"/>
-      <c r="B623" s="24"/>
+      <c r="A623" s="22"/>
+      <c r="B623" s="22"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="A624" s="24"/>
-      <c r="B624" s="24"/>
+      <c r="A624" s="22"/>
+      <c r="B624" s="22"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="A625" s="24"/>
-      <c r="B625" s="24"/>
+      <c r="A625" s="22"/>
+      <c r="B625" s="22"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="A626" s="24"/>
-      <c r="B626" s="24"/>
+      <c r="A626" s="22"/>
+      <c r="B626" s="22"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="A627" s="24"/>
-      <c r="B627" s="24"/>
+      <c r="A627" s="22"/>
+      <c r="B627" s="22"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="A628" s="24"/>
-      <c r="B628" s="24"/>
+      <c r="A628" s="22"/>
+      <c r="B628" s="22"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="A629" s="24"/>
-      <c r="B629" s="24"/>
+      <c r="A629" s="22"/>
+      <c r="B629" s="22"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="A630" s="24"/>
-      <c r="B630" s="24"/>
+      <c r="A630" s="22"/>
+      <c r="B630" s="22"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="A631" s="24"/>
-      <c r="B631" s="24"/>
+      <c r="A631" s="22"/>
+      <c r="B631" s="22"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="A632" s="24"/>
-      <c r="B632" s="24"/>
+      <c r="A632" s="22"/>
+      <c r="B632" s="22"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="A633" s="24"/>
-      <c r="B633" s="24"/>
+      <c r="A633" s="22"/>
+      <c r="B633" s="22"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="A634" s="24"/>
-      <c r="B634" s="24"/>
+      <c r="A634" s="22"/>
+      <c r="B634" s="22"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="A635" s="24"/>
-      <c r="B635" s="24"/>
+      <c r="A635" s="22"/>
+      <c r="B635" s="22"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="A636" s="24"/>
-      <c r="B636" s="24"/>
+      <c r="A636" s="22"/>
+      <c r="B636" s="22"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="A637" s="24"/>
-      <c r="B637" s="24"/>
+      <c r="A637" s="22"/>
+      <c r="B637" s="22"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="A638" s="24"/>
-      <c r="B638" s="24"/>
+      <c r="A638" s="22"/>
+      <c r="B638" s="22"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="A639" s="24"/>
-      <c r="B639" s="24"/>
+      <c r="A639" s="22"/>
+      <c r="B639" s="22"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="A640" s="24"/>
-      <c r="B640" s="24"/>
+      <c r="A640" s="22"/>
+      <c r="B640" s="22"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="A641" s="24"/>
-      <c r="B641" s="24"/>
+      <c r="A641" s="22"/>
+      <c r="B641" s="22"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="A642" s="24"/>
-      <c r="B642" s="24"/>
+      <c r="A642" s="22"/>
+      <c r="B642" s="22"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="A643" s="24"/>
-      <c r="B643" s="24"/>
+      <c r="A643" s="22"/>
+      <c r="B643" s="22"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="A644" s="24"/>
-      <c r="B644" s="24"/>
+      <c r="A644" s="22"/>
+      <c r="B644" s="22"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="A645" s="24"/>
-      <c r="B645" s="24"/>
+      <c r="A645" s="22"/>
+      <c r="B645" s="22"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="A646" s="24"/>
-      <c r="B646" s="24"/>
+      <c r="A646" s="22"/>
+      <c r="B646" s="22"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="A647" s="24"/>
-      <c r="B647" s="24"/>
+      <c r="A647" s="22"/>
+      <c r="B647" s="22"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="A648" s="24"/>
-      <c r="B648" s="24"/>
+      <c r="A648" s="22"/>
+      <c r="B648" s="22"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="A649" s="24"/>
-      <c r="B649" s="24"/>
+      <c r="A649" s="22"/>
+      <c r="B649" s="22"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="A650" s="24"/>
-      <c r="B650" s="24"/>
+      <c r="A650" s="22"/>
+      <c r="B650" s="22"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="A651" s="24"/>
-      <c r="B651" s="24"/>
+      <c r="A651" s="22"/>
+      <c r="B651" s="22"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="A652" s="24"/>
-      <c r="B652" s="24"/>
+      <c r="A652" s="22"/>
+      <c r="B652" s="22"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="A653" s="24"/>
-      <c r="B653" s="24"/>
+      <c r="A653" s="22"/>
+      <c r="B653" s="22"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="A654" s="24"/>
-      <c r="B654" s="24"/>
+      <c r="A654" s="22"/>
+      <c r="B654" s="22"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="A655" s="24"/>
-      <c r="B655" s="24"/>
+      <c r="A655" s="22"/>
+      <c r="B655" s="22"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="A656" s="24"/>
-      <c r="B656" s="24"/>
+      <c r="A656" s="22"/>
+      <c r="B656" s="22"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="A657" s="24"/>
-      <c r="B657" s="24"/>
+      <c r="A657" s="22"/>
+      <c r="B657" s="22"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="A658" s="24"/>
-      <c r="B658" s="24"/>
+      <c r="A658" s="22"/>
+      <c r="B658" s="22"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="A659" s="24"/>
-      <c r="B659" s="24"/>
+      <c r="A659" s="22"/>
+      <c r="B659" s="22"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="A660" s="24"/>
-      <c r="B660" s="24"/>
+      <c r="A660" s="22"/>
+      <c r="B660" s="22"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="A661" s="24"/>
-      <c r="B661" s="24"/>
+      <c r="A661" s="22"/>
+      <c r="B661" s="22"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="A662" s="24"/>
-      <c r="B662" s="24"/>
+      <c r="A662" s="22"/>
+      <c r="B662" s="22"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="A663" s="24"/>
-      <c r="B663" s="24"/>
+      <c r="A663" s="22"/>
+      <c r="B663" s="22"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="A664" s="24"/>
-      <c r="B664" s="24"/>
+      <c r="A664" s="22"/>
+      <c r="B664" s="22"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="A665" s="24"/>
-      <c r="B665" s="24"/>
+      <c r="A665" s="22"/>
+      <c r="B665" s="22"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="A666" s="24"/>
-      <c r="B666" s="24"/>
+      <c r="A666" s="22"/>
+      <c r="B666" s="22"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="A667" s="24"/>
-      <c r="B667" s="24"/>
+      <c r="A667" s="22"/>
+      <c r="B667" s="22"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="A668" s="24"/>
-      <c r="B668" s="24"/>
+      <c r="A668" s="22"/>
+      <c r="B668" s="22"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="A669" s="24"/>
-      <c r="B669" s="24"/>
+      <c r="A669" s="22"/>
+      <c r="B669" s="22"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="A670" s="24"/>
-      <c r="B670" s="24"/>
+      <c r="A670" s="22"/>
+      <c r="B670" s="22"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="A671" s="24"/>
-      <c r="B671" s="24"/>
+      <c r="A671" s="22"/>
+      <c r="B671" s="22"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="A672" s="24"/>
-      <c r="B672" s="24"/>
+      <c r="A672" s="22"/>
+      <c r="B672" s="22"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="A673" s="24"/>
-      <c r="B673" s="24"/>
+      <c r="A673" s="22"/>
+      <c r="B673" s="22"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="A674" s="24"/>
-      <c r="B674" s="24"/>
+      <c r="A674" s="22"/>
+      <c r="B674" s="22"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="A675" s="24"/>
-      <c r="B675" s="24"/>
+      <c r="A675" s="22"/>
+      <c r="B675" s="22"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="A676" s="24"/>
-      <c r="B676" s="24"/>
+      <c r="A676" s="22"/>
+      <c r="B676" s="22"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="A677" s="24"/>
-      <c r="B677" s="24"/>
+      <c r="A677" s="22"/>
+      <c r="B677" s="22"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="A678" s="24"/>
-      <c r="B678" s="24"/>
+      <c r="A678" s="22"/>
+      <c r="B678" s="22"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="A679" s="24"/>
-      <c r="B679" s="24"/>
+      <c r="A679" s="22"/>
+      <c r="B679" s="22"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="A680" s="24"/>
-      <c r="B680" s="24"/>
+      <c r="A680" s="22"/>
+      <c r="B680" s="22"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="A681" s="24"/>
-      <c r="B681" s="24"/>
+      <c r="A681" s="22"/>
+      <c r="B681" s="22"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="A682" s="24"/>
-      <c r="B682" s="24"/>
+      <c r="A682" s="22"/>
+      <c r="B682" s="22"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="A683" s="24"/>
-      <c r="B683" s="24"/>
+      <c r="A683" s="22"/>
+      <c r="B683" s="22"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="A684" s="24"/>
-      <c r="B684" s="24"/>
+      <c r="A684" s="22"/>
+      <c r="B684" s="22"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="A685" s="24"/>
-      <c r="B685" s="24"/>
+      <c r="A685" s="22"/>
+      <c r="B685" s="22"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="A686" s="24"/>
-      <c r="B686" s="24"/>
+      <c r="A686" s="22"/>
+      <c r="B686" s="22"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="A687" s="24"/>
-      <c r="B687" s="24"/>
+      <c r="A687" s="22"/>
+      <c r="B687" s="22"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="A688" s="24"/>
-      <c r="B688" s="24"/>
+      <c r="A688" s="22"/>
+      <c r="B688" s="22"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="A689" s="24"/>
-      <c r="B689" s="24"/>
+      <c r="A689" s="22"/>
+      <c r="B689" s="22"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="A690" s="24"/>
-      <c r="B690" s="24"/>
+      <c r="A690" s="22"/>
+      <c r="B690" s="22"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="A691" s="24"/>
-      <c r="B691" s="24"/>
+      <c r="A691" s="22"/>
+      <c r="B691" s="22"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="A692" s="24"/>
-      <c r="B692" s="24"/>
+      <c r="A692" s="22"/>
+      <c r="B692" s="22"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="A693" s="24"/>
-      <c r="B693" s="24"/>
+      <c r="A693" s="22"/>
+      <c r="B693" s="22"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="A694" s="24"/>
-      <c r="B694" s="24"/>
+      <c r="A694" s="22"/>
+      <c r="B694" s="22"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="A695" s="24"/>
-      <c r="B695" s="24"/>
+      <c r="A695" s="22"/>
+      <c r="B695" s="22"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="A696" s="24"/>
-      <c r="B696" s="24"/>
+      <c r="A696" s="22"/>
+      <c r="B696" s="22"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="A697" s="24"/>
-      <c r="B697" s="24"/>
+      <c r="A697" s="22"/>
+      <c r="B697" s="22"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="A698" s="24"/>
-      <c r="B698" s="24"/>
+      <c r="A698" s="22"/>
+      <c r="B698" s="22"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="A699" s="24"/>
-      <c r="B699" s="24"/>
+      <c r="A699" s="22"/>
+      <c r="B699" s="22"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="A700" s="24"/>
-      <c r="B700" s="24"/>
+      <c r="A700" s="22"/>
+      <c r="B700" s="22"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="A701" s="24"/>
-      <c r="B701" s="24"/>
+      <c r="A701" s="22"/>
+      <c r="B701" s="22"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="A702" s="24"/>
-      <c r="B702" s="24"/>
+      <c r="A702" s="22"/>
+      <c r="B702" s="22"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="A703" s="24"/>
-      <c r="B703" s="24"/>
+      <c r="A703" s="22"/>
+      <c r="B703" s="22"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="A704" s="24"/>
-      <c r="B704" s="24"/>
+      <c r="A704" s="22"/>
+      <c r="B704" s="22"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="A705" s="24"/>
-      <c r="B705" s="24"/>
+      <c r="A705" s="22"/>
+      <c r="B705" s="22"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="A706" s="24"/>
-      <c r="B706" s="24"/>
+      <c r="A706" s="22"/>
+      <c r="B706" s="22"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="A707" s="24"/>
-      <c r="B707" s="24"/>
+      <c r="A707" s="22"/>
+      <c r="B707" s="22"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="A708" s="24"/>
-      <c r="B708" s="24"/>
+      <c r="A708" s="22"/>
+      <c r="B708" s="22"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="A709" s="24"/>
-      <c r="B709" s="24"/>
+      <c r="A709" s="22"/>
+      <c r="B709" s="22"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="A710" s="24"/>
-      <c r="B710" s="24"/>
+      <c r="A710" s="22"/>
+      <c r="B710" s="22"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="A711" s="24"/>
-      <c r="B711" s="24"/>
+      <c r="A711" s="22"/>
+      <c r="B711" s="22"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="A712" s="24"/>
-      <c r="B712" s="24"/>
+      <c r="A712" s="22"/>
+      <c r="B712" s="22"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="A713" s="24"/>
-      <c r="B713" s="24"/>
+      <c r="A713" s="22"/>
+      <c r="B713" s="22"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="A714" s="24"/>
-      <c r="B714" s="24"/>
+      <c r="A714" s="22"/>
+      <c r="B714" s="22"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="A715" s="24"/>
-      <c r="B715" s="24"/>
+      <c r="A715" s="22"/>
+      <c r="B715" s="22"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="A716" s="24"/>
-      <c r="B716" s="24"/>
+      <c r="A716" s="22"/>
+      <c r="B716" s="22"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="A717" s="24"/>
-      <c r="B717" s="24"/>
+      <c r="A717" s="22"/>
+      <c r="B717" s="22"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="A718" s="24"/>
-      <c r="B718" s="24"/>
+      <c r="A718" s="22"/>
+      <c r="B718" s="22"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="A719" s="24"/>
-      <c r="B719" s="24"/>
+      <c r="A719" s="22"/>
+      <c r="B719" s="22"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="A720" s="24"/>
-      <c r="B720" s="24"/>
+      <c r="A720" s="22"/>
+      <c r="B720" s="22"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="A721" s="24"/>
-      <c r="B721" s="24"/>
+      <c r="A721" s="22"/>
+      <c r="B721" s="22"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="A722" s="24"/>
-      <c r="B722" s="24"/>
+      <c r="A722" s="22"/>
+      <c r="B722" s="22"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="A723" s="24"/>
-      <c r="B723" s="24"/>
+      <c r="A723" s="22"/>
+      <c r="B723" s="22"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="A724" s="24"/>
-      <c r="B724" s="24"/>
+      <c r="A724" s="22"/>
+      <c r="B724" s="22"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="A725" s="24"/>
-      <c r="B725" s="24"/>
+      <c r="A725" s="22"/>
+      <c r="B725" s="22"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="A726" s="24"/>
-      <c r="B726" s="24"/>
+      <c r="A726" s="22"/>
+      <c r="B726" s="22"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="A727" s="24"/>
-      <c r="B727" s="24"/>
+      <c r="A727" s="22"/>
+      <c r="B727" s="22"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="A728" s="24"/>
-      <c r="B728" s="24"/>
+      <c r="A728" s="22"/>
+      <c r="B728" s="22"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="A729" s="24"/>
-      <c r="B729" s="24"/>
+      <c r="A729" s="22"/>
+      <c r="B729" s="22"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="A730" s="24"/>
-      <c r="B730" s="24"/>
+      <c r="A730" s="22"/>
+      <c r="B730" s="22"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="A731" s="24"/>
-      <c r="B731" s="24"/>
+      <c r="A731" s="22"/>
+      <c r="B731" s="22"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="A732" s="24"/>
-      <c r="B732" s="24"/>
+      <c r="A732" s="22"/>
+      <c r="B732" s="22"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="A733" s="24"/>
-      <c r="B733" s="24"/>
+      <c r="A733" s="22"/>
+      <c r="B733" s="22"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="A734" s="24"/>
-      <c r="B734" s="24"/>
+      <c r="A734" s="22"/>
+      <c r="B734" s="22"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="A735" s="24"/>
-      <c r="B735" s="24"/>
+      <c r="A735" s="22"/>
+      <c r="B735" s="22"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="A736" s="24"/>
-      <c r="B736" s="24"/>
+      <c r="A736" s="22"/>
+      <c r="B736" s="22"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="A737" s="24"/>
-      <c r="B737" s="24"/>
+      <c r="A737" s="22"/>
+      <c r="B737" s="22"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="A738" s="24"/>
-      <c r="B738" s="24"/>
+      <c r="A738" s="22"/>
+      <c r="B738" s="22"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="A739" s="24"/>
-      <c r="B739" s="24"/>
+      <c r="A739" s="22"/>
+      <c r="B739" s="22"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="A740" s="24"/>
-      <c r="B740" s="24"/>
+      <c r="A740" s="22"/>
+      <c r="B740" s="22"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="A741" s="24"/>
-      <c r="B741" s="24"/>
+      <c r="A741" s="22"/>
+      <c r="B741" s="22"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="A742" s="24"/>
-      <c r="B742" s="24"/>
+      <c r="A742" s="22"/>
+      <c r="B742" s="22"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="A743" s="24"/>
-      <c r="B743" s="24"/>
+      <c r="A743" s="22"/>
+      <c r="B743" s="22"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="A744" s="24"/>
-      <c r="B744" s="24"/>
+      <c r="A744" s="22"/>
+      <c r="B744" s="22"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="A745" s="24"/>
-      <c r="B745" s="24"/>
+      <c r="A745" s="22"/>
+      <c r="B745" s="22"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="A746" s="24"/>
-      <c r="B746" s="24"/>
+      <c r="A746" s="22"/>
+      <c r="B746" s="22"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="A747" s="24"/>
-      <c r="B747" s="24"/>
+      <c r="A747" s="22"/>
+      <c r="B747" s="22"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="A748" s="24"/>
-      <c r="B748" s="24"/>
+      <c r="A748" s="22"/>
+      <c r="B748" s="22"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="A749" s="24"/>
-      <c r="B749" s="24"/>
+      <c r="A749" s="22"/>
+      <c r="B749" s="22"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="A750" s="24"/>
-      <c r="B750" s="24"/>
+      <c r="A750" s="22"/>
+      <c r="B750" s="22"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="A751" s="24"/>
-      <c r="B751" s="24"/>
+      <c r="A751" s="22"/>
+      <c r="B751" s="22"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="A752" s="24"/>
-      <c r="B752" s="24"/>
+      <c r="A752" s="22"/>
+      <c r="B752" s="22"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="A753" s="24"/>
-      <c r="B753" s="24"/>
+      <c r="A753" s="22"/>
+      <c r="B753" s="22"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="A754" s="24"/>
-      <c r="B754" s="24"/>
+      <c r="A754" s="22"/>
+      <c r="B754" s="22"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="A755" s="24"/>
-      <c r="B755" s="24"/>
+      <c r="A755" s="22"/>
+      <c r="B755" s="22"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="A756" s="24"/>
-      <c r="B756" s="24"/>
+      <c r="A756" s="22"/>
+      <c r="B756" s="22"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="A757" s="24"/>
-      <c r="B757" s="24"/>
+      <c r="A757" s="22"/>
+      <c r="B757" s="22"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="A758" s="24"/>
-      <c r="B758" s="24"/>
+      <c r="A758" s="22"/>
+      <c r="B758" s="22"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="A759" s="24"/>
-      <c r="B759" s="24"/>
+      <c r="A759" s="22"/>
+      <c r="B759" s="22"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="A760" s="24"/>
-      <c r="B760" s="24"/>
+      <c r="A760" s="22"/>
+      <c r="B760" s="22"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="A761" s="24"/>
-      <c r="B761" s="24"/>
+      <c r="A761" s="22"/>
+      <c r="B761" s="22"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="A762" s="24"/>
-      <c r="B762" s="24"/>
+      <c r="A762" s="22"/>
+      <c r="B762" s="22"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="A763" s="24"/>
-      <c r="B763" s="24"/>
+      <c r="A763" s="22"/>
+      <c r="B763" s="22"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="A764" s="24"/>
-      <c r="B764" s="24"/>
+      <c r="A764" s="22"/>
+      <c r="B764" s="22"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="A765" s="24"/>
-      <c r="B765" s="24"/>
+      <c r="A765" s="22"/>
+      <c r="B765" s="22"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="A766" s="24"/>
-      <c r="B766" s="24"/>
+      <c r="A766" s="22"/>
+      <c r="B766" s="22"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="A767" s="24"/>
-      <c r="B767" s="24"/>
+      <c r="A767" s="22"/>
+      <c r="B767" s="22"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="A768" s="24"/>
-      <c r="B768" s="24"/>
+      <c r="A768" s="22"/>
+      <c r="B768" s="22"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="A769" s="24"/>
-      <c r="B769" s="24"/>
+      <c r="A769" s="22"/>
+      <c r="B769" s="22"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="A770" s="24"/>
-      <c r="B770" s="24"/>
+      <c r="A770" s="22"/>
+      <c r="B770" s="22"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="A771" s="24"/>
-      <c r="B771" s="24"/>
+      <c r="A771" s="22"/>
+      <c r="B771" s="22"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="A772" s="24"/>
-      <c r="B772" s="24"/>
+      <c r="A772" s="22"/>
+      <c r="B772" s="22"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="A773" s="24"/>
-      <c r="B773" s="24"/>
+      <c r="A773" s="22"/>
+      <c r="B773" s="22"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="A774" s="24"/>
-      <c r="B774" s="24"/>
+      <c r="A774" s="22"/>
+      <c r="B774" s="22"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="A775" s="24"/>
-      <c r="B775" s="24"/>
+      <c r="A775" s="22"/>
+      <c r="B775" s="22"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="A776" s="24"/>
-      <c r="B776" s="24"/>
+      <c r="A776" s="22"/>
+      <c r="B776" s="22"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="A777" s="24"/>
-      <c r="B777" s="24"/>
+      <c r="A777" s="22"/>
+      <c r="B777" s="22"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="A778" s="24"/>
-      <c r="B778" s="24"/>
+      <c r="A778" s="22"/>
+      <c r="B778" s="22"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="A779" s="24"/>
-      <c r="B779" s="24"/>
+      <c r="A779" s="22"/>
+      <c r="B779" s="22"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="A780" s="24"/>
-      <c r="B780" s="24"/>
+      <c r="A780" s="22"/>
+      <c r="B780" s="22"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="A781" s="24"/>
-      <c r="B781" s="24"/>
+      <c r="A781" s="22"/>
+      <c r="B781" s="22"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="A782" s="24"/>
-      <c r="B782" s="24"/>
+      <c r="A782" s="22"/>
+      <c r="B782" s="22"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="A783" s="24"/>
-      <c r="B783" s="24"/>
+      <c r="A783" s="22"/>
+      <c r="B783" s="22"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="A784" s="24"/>
-      <c r="B784" s="24"/>
+      <c r="A784" s="22"/>
+      <c r="B784" s="22"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="A785" s="24"/>
-      <c r="B785" s="24"/>
+      <c r="A785" s="22"/>
+      <c r="B785" s="22"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="A786" s="24"/>
-      <c r="B786" s="24"/>
+      <c r="A786" s="22"/>
+      <c r="B786" s="22"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="A787" s="24"/>
-      <c r="B787" s="24"/>
+      <c r="A787" s="22"/>
+      <c r="B787" s="22"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="A788" s="24"/>
-      <c r="B788" s="24"/>
+      <c r="A788" s="22"/>
+      <c r="B788" s="22"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="A789" s="24"/>
-      <c r="B789" s="24"/>
+      <c r="A789" s="22"/>
+      <c r="B789" s="22"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="A790" s="24"/>
-      <c r="B790" s="24"/>
+      <c r="A790" s="22"/>
+      <c r="B790" s="22"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="A791" s="24"/>
-      <c r="B791" s="24"/>
+      <c r="A791" s="22"/>
+      <c r="B791" s="22"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="A792" s="24"/>
-      <c r="B792" s="24"/>
+      <c r="A792" s="22"/>
+      <c r="B792" s="22"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="A793" s="24"/>
-      <c r="B793" s="24"/>
+      <c r="A793" s="22"/>
+      <c r="B793" s="22"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="A794" s="24"/>
-      <c r="B794" s="24"/>
+      <c r="A794" s="22"/>
+      <c r="B794" s="22"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="A795" s="24"/>
-      <c r="B795" s="24"/>
+      <c r="A795" s="22"/>
+      <c r="B795" s="22"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="A796" s="24"/>
-      <c r="B796" s="24"/>
+      <c r="A796" s="22"/>
+      <c r="B796" s="22"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="A797" s="24"/>
-      <c r="B797" s="24"/>
+      <c r="A797" s="22"/>
+      <c r="B797" s="22"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="A798" s="24"/>
-      <c r="B798" s="24"/>
+      <c r="A798" s="22"/>
+      <c r="B798" s="22"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="A799" s="24"/>
-      <c r="B799" s="24"/>
+      <c r="A799" s="22"/>
+      <c r="B799" s="22"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="A800" s="24"/>
-      <c r="B800" s="24"/>
+      <c r="A800" s="22"/>
+      <c r="B800" s="22"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="A801" s="24"/>
-      <c r="B801" s="24"/>
+      <c r="A801" s="22"/>
+      <c r="B801" s="22"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="A802" s="24"/>
-      <c r="B802" s="24"/>
+      <c r="A802" s="22"/>
+      <c r="B802" s="22"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="A803" s="24"/>
-      <c r="B803" s="24"/>
+      <c r="A803" s="22"/>
+      <c r="B803" s="22"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="A804" s="24"/>
-      <c r="B804" s="24"/>
+      <c r="A804" s="22"/>
+      <c r="B804" s="22"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="A805" s="24"/>
-      <c r="B805" s="24"/>
+      <c r="A805" s="22"/>
+      <c r="B805" s="22"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="A806" s="24"/>
-      <c r="B806" s="24"/>
+      <c r="A806" s="22"/>
+      <c r="B806" s="22"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="A807" s="24"/>
-      <c r="B807" s="24"/>
+      <c r="A807" s="22"/>
+      <c r="B807" s="22"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="A808" s="24"/>
-      <c r="B808" s="24"/>
+      <c r="A808" s="22"/>
+      <c r="B808" s="22"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="A809" s="24"/>
-      <c r="B809" s="24"/>
+      <c r="A809" s="22"/>
+      <c r="B809" s="22"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="A810" s="24"/>
-      <c r="B810" s="24"/>
+      <c r="A810" s="22"/>
+      <c r="B810" s="22"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="A811" s="24"/>
-      <c r="B811" s="24"/>
+      <c r="A811" s="22"/>
+      <c r="B811" s="22"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="A812" s="24"/>
-      <c r="B812" s="24"/>
+      <c r="A812" s="22"/>
+      <c r="B812" s="22"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="A813" s="24"/>
-      <c r="B813" s="24"/>
+      <c r="A813" s="22"/>
+      <c r="B813" s="22"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="A814" s="24"/>
-      <c r="B814" s="24"/>
+      <c r="A814" s="22"/>
+      <c r="B814" s="22"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="A815" s="24"/>
-      <c r="B815" s="24"/>
+      <c r="A815" s="22"/>
+      <c r="B815" s="22"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="A816" s="24"/>
-      <c r="B816" s="24"/>
+      <c r="A816" s="22"/>
+      <c r="B816" s="22"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="A817" s="24"/>
-      <c r="B817" s="24"/>
+      <c r="A817" s="22"/>
+      <c r="B817" s="22"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="A818" s="24"/>
-      <c r="B818" s="24"/>
+      <c r="A818" s="22"/>
+      <c r="B818" s="22"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="A819" s="24"/>
-      <c r="B819" s="24"/>
+      <c r="A819" s="22"/>
+      <c r="B819" s="22"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="A820" s="24"/>
-      <c r="B820" s="24"/>
+      <c r="A820" s="22"/>
+      <c r="B820" s="22"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="A821" s="24"/>
-      <c r="B821" s="24"/>
+      <c r="A821" s="22"/>
+      <c r="B821" s="22"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="A822" s="24"/>
-      <c r="B822" s="24"/>
+      <c r="A822" s="22"/>
+      <c r="B822" s="22"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="A823" s="24"/>
-      <c r="B823" s="24"/>
+      <c r="A823" s="22"/>
+      <c r="B823" s="22"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="A824" s="24"/>
-      <c r="B824" s="24"/>
+      <c r="A824" s="22"/>
+      <c r="B824" s="22"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="A825" s="24"/>
-      <c r="B825" s="24"/>
+      <c r="A825" s="22"/>
+      <c r="B825" s="22"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="A826" s="24"/>
-      <c r="B826" s="24"/>
+      <c r="A826" s="22"/>
+      <c r="B826" s="22"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="A827" s="24"/>
-      <c r="B827" s="24"/>
+      <c r="A827" s="22"/>
+      <c r="B827" s="22"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="A828" s="24"/>
-      <c r="B828" s="24"/>
+      <c r="A828" s="22"/>
+      <c r="B828" s="22"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="A829" s="24"/>
-      <c r="B829" s="24"/>
+      <c r="A829" s="22"/>
+      <c r="B829" s="22"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="A830" s="24"/>
-      <c r="B830" s="24"/>
+      <c r="A830" s="22"/>
+      <c r="B830" s="22"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="A831" s="24"/>
-      <c r="B831" s="24"/>
+      <c r="A831" s="22"/>
+      <c r="B831" s="22"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="A832" s="24"/>
-      <c r="B832" s="24"/>
+      <c r="A832" s="22"/>
+      <c r="B832" s="22"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="A833" s="24"/>
-      <c r="B833" s="24"/>
+      <c r="A833" s="22"/>
+      <c r="B833" s="22"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="A834" s="24"/>
-      <c r="B834" s="24"/>
+      <c r="A834" s="22"/>
+      <c r="B834" s="22"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="A835" s="24"/>
-      <c r="B835" s="24"/>
+      <c r="A835" s="22"/>
+      <c r="B835" s="22"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="A836" s="24"/>
-      <c r="B836" s="24"/>
+      <c r="A836" s="22"/>
+      <c r="B836" s="22"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="A837" s="24"/>
-      <c r="B837" s="24"/>
+      <c r="A837" s="22"/>
+      <c r="B837" s="22"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="A838" s="24"/>
-      <c r="B838" s="24"/>
+      <c r="A838" s="22"/>
+      <c r="B838" s="22"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="A839" s="24"/>
-      <c r="B839" s="24"/>
+      <c r="A839" s="22"/>
+      <c r="B839" s="22"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="A840" s="24"/>
-      <c r="B840" s="24"/>
+      <c r="A840" s="22"/>
+      <c r="B840" s="22"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="A841" s="24"/>
-      <c r="B841" s="24"/>
+      <c r="A841" s="22"/>
+      <c r="B841" s="22"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="A842" s="24"/>
-      <c r="B842" s="24"/>
+      <c r="A842" s="22"/>
+      <c r="B842" s="22"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="A843" s="24"/>
-      <c r="B843" s="24"/>
+      <c r="A843" s="22"/>
+      <c r="B843" s="22"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="A844" s="24"/>
-      <c r="B844" s="24"/>
+      <c r="A844" s="22"/>
+      <c r="B844" s="22"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="A845" s="24"/>
-      <c r="B845" s="24"/>
+      <c r="A845" s="22"/>
+      <c r="B845" s="22"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="A846" s="24"/>
-      <c r="B846" s="24"/>
+      <c r="A846" s="22"/>
+      <c r="B846" s="22"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="A847" s="24"/>
-      <c r="B847" s="24"/>
+      <c r="A847" s="22"/>
+      <c r="B847" s="22"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="A848" s="24"/>
-      <c r="B848" s="24"/>
+      <c r="A848" s="22"/>
+      <c r="B848" s="22"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="A849" s="24"/>
-      <c r="B849" s="24"/>
+      <c r="A849" s="22"/>
+      <c r="B849" s="22"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="A850" s="24"/>
-      <c r="B850" s="24"/>
+      <c r="A850" s="22"/>
+      <c r="B850" s="22"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="A851" s="24"/>
-      <c r="B851" s="24"/>
+      <c r="A851" s="22"/>
+      <c r="B851" s="22"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="A852" s="24"/>
-      <c r="B852" s="24"/>
+      <c r="A852" s="22"/>
+      <c r="B852" s="22"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="A853" s="24"/>
-      <c r="B853" s="24"/>
+      <c r="A853" s="22"/>
+      <c r="B853" s="22"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="A854" s="24"/>
-      <c r="B854" s="24"/>
+      <c r="A854" s="22"/>
+      <c r="B854" s="22"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="A855" s="24"/>
-      <c r="B855" s="24"/>
+      <c r="A855" s="22"/>
+      <c r="B855" s="22"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="A856" s="24"/>
-      <c r="B856" s="24"/>
+      <c r="A856" s="22"/>
+      <c r="B856" s="22"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="A857" s="24"/>
-      <c r="B857" s="24"/>
+      <c r="A857" s="22"/>
+      <c r="B857" s="22"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="A858" s="24"/>
-      <c r="B858" s="24"/>
+      <c r="A858" s="22"/>
+      <c r="B858" s="22"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="A859" s="24"/>
-      <c r="B859" s="24"/>
+      <c r="A859" s="22"/>
+      <c r="B859" s="22"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="A860" s="24"/>
-      <c r="B860" s="24"/>
+      <c r="A860" s="22"/>
+      <c r="B860" s="22"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="A861" s="24"/>
-      <c r="B861" s="24"/>
+      <c r="A861" s="22"/>
+      <c r="B861" s="22"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="A862" s="24"/>
-      <c r="B862" s="24"/>
+      <c r="A862" s="22"/>
+      <c r="B862" s="22"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="A863" s="24"/>
-      <c r="B863" s="24"/>
+      <c r="A863" s="22"/>
+      <c r="B863" s="22"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="A864" s="24"/>
-      <c r="B864" s="24"/>
+      <c r="A864" s="22"/>
+      <c r="B864" s="22"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="A865" s="24"/>
-      <c r="B865" s="24"/>
+      <c r="A865" s="22"/>
+      <c r="B865" s="22"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="A866" s="24"/>
-      <c r="B866" s="24"/>
+      <c r="A866" s="22"/>
+      <c r="B866" s="22"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="A867" s="24"/>
-      <c r="B867" s="24"/>
+      <c r="A867" s="22"/>
+      <c r="B867" s="22"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="A868" s="24"/>
-      <c r="B868" s="24"/>
+      <c r="A868" s="22"/>
+      <c r="B868" s="22"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="A869" s="24"/>
-      <c r="B869" s="24"/>
+      <c r="A869" s="22"/>
+      <c r="B869" s="22"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="A870" s="24"/>
-      <c r="B870" s="24"/>
+      <c r="A870" s="22"/>
+      <c r="B870" s="22"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="A871" s="24"/>
-      <c r="B871" s="24"/>
+      <c r="A871" s="22"/>
+      <c r="B871" s="22"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="A872" s="24"/>
-      <c r="B872" s="24"/>
+      <c r="A872" s="22"/>
+      <c r="B872" s="22"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="A873" s="24"/>
-      <c r="B873" s="24"/>
+      <c r="A873" s="22"/>
+      <c r="B873" s="22"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="A874" s="24"/>
-      <c r="B874" s="24"/>
+      <c r="A874" s="22"/>
+      <c r="B874" s="22"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="A875" s="24"/>
-      <c r="B875" s="24"/>
+      <c r="A875" s="22"/>
+      <c r="B875" s="22"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="A876" s="24"/>
-      <c r="B876" s="24"/>
+      <c r="A876" s="22"/>
+      <c r="B876" s="22"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="A877" s="24"/>
-      <c r="B877" s="24"/>
+      <c r="A877" s="22"/>
+      <c r="B877" s="22"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="A878" s="24"/>
-      <c r="B878" s="24"/>
+      <c r="A878" s="22"/>
+      <c r="B878" s="22"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="A879" s="24"/>
-      <c r="B879" s="24"/>
+      <c r="A879" s="22"/>
+      <c r="B879" s="22"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="A880" s="24"/>
-      <c r="B880" s="24"/>
+      <c r="A880" s="22"/>
+      <c r="B880" s="22"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="A881" s="24"/>
-      <c r="B881" s="24"/>
+      <c r="A881" s="22"/>
+      <c r="B881" s="22"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="A882" s="24"/>
-      <c r="B882" s="24"/>
+      <c r="A882" s="22"/>
+      <c r="B882" s="22"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="A883" s="24"/>
-      <c r="B883" s="24"/>
+      <c r="A883" s="22"/>
+      <c r="B883" s="22"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="A884" s="24"/>
-      <c r="B884" s="24"/>
+      <c r="A884" s="22"/>
+      <c r="B884" s="22"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="A885" s="24"/>
-      <c r="B885" s="24"/>
+      <c r="A885" s="22"/>
+      <c r="B885" s="22"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="A886" s="24"/>
-      <c r="B886" s="24"/>
+      <c r="A886" s="22"/>
+      <c r="B886" s="22"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="A887" s="24"/>
-      <c r="B887" s="24"/>
+      <c r="A887" s="22"/>
+      <c r="B887" s="22"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="A888" s="24"/>
-      <c r="B888" s="24"/>
+      <c r="A888" s="22"/>
+      <c r="B888" s="22"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="A889" s="24"/>
-      <c r="B889" s="24"/>
+      <c r="A889" s="22"/>
+      <c r="B889" s="22"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="A890" s="24"/>
-      <c r="B890" s="24"/>
+      <c r="A890" s="22"/>
+      <c r="B890" s="22"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="A891" s="24"/>
-      <c r="B891" s="24"/>
+      <c r="A891" s="22"/>
+      <c r="B891" s="22"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="A892" s="24"/>
-      <c r="B892" s="24"/>
+      <c r="A892" s="22"/>
+      <c r="B892" s="22"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="A893" s="24"/>
-      <c r="B893" s="24"/>
+      <c r="A893" s="22"/>
+      <c r="B893" s="22"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="A894" s="24"/>
-      <c r="B894" s="24"/>
+      <c r="A894" s="22"/>
+      <c r="B894" s="22"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="A895" s="24"/>
-      <c r="B895" s="24"/>
+      <c r="A895" s="22"/>
+      <c r="B895" s="22"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="A896" s="24"/>
-      <c r="B896" s="24"/>
+      <c r="A896" s="22"/>
+      <c r="B896" s="22"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="A897" s="24"/>
-      <c r="B897" s="24"/>
+      <c r="A897" s="22"/>
+      <c r="B897" s="22"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="A898" s="24"/>
-      <c r="B898" s="24"/>
+      <c r="A898" s="22"/>
+      <c r="B898" s="22"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="A899" s="24"/>
-      <c r="B899" s="24"/>
+      <c r="A899" s="22"/>
+      <c r="B899" s="22"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="A900" s="24"/>
-      <c r="B900" s="24"/>
+      <c r="A900" s="22"/>
+      <c r="B900" s="22"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="A901" s="24"/>
-      <c r="B901" s="24"/>
+      <c r="A901" s="22"/>
+      <c r="B901" s="22"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="A902" s="24"/>
-      <c r="B902" s="24"/>
+      <c r="A902" s="22"/>
+      <c r="B902" s="22"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="A903" s="24"/>
-      <c r="B903" s="24"/>
+      <c r="A903" s="22"/>
+      <c r="B903" s="22"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="A904" s="24"/>
-      <c r="B904" s="24"/>
+      <c r="A904" s="22"/>
+      <c r="B904" s="22"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="A905" s="24"/>
-      <c r="B905" s="24"/>
+      <c r="A905" s="22"/>
+      <c r="B905" s="22"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="A906" s="24"/>
-      <c r="B906" s="24"/>
+      <c r="A906" s="22"/>
+      <c r="B906" s="22"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="A907" s="24"/>
-      <c r="B907" s="24"/>
+      <c r="A907" s="22"/>
+      <c r="B907" s="22"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="A908" s="24"/>
-      <c r="B908" s="24"/>
+      <c r="A908" s="22"/>
+      <c r="B908" s="22"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="A909" s="24"/>
-      <c r="B909" s="24"/>
+      <c r="A909" s="22"/>
+      <c r="B909" s="22"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="A910" s="24"/>
-      <c r="B910" s="24"/>
+      <c r="A910" s="22"/>
+      <c r="B910" s="22"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="A911" s="24"/>
-      <c r="B911" s="24"/>
+      <c r="A911" s="22"/>
+      <c r="B911" s="22"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="A912" s="24"/>
-      <c r="B912" s="24"/>
+      <c r="A912" s="22"/>
+      <c r="B912" s="22"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="A913" s="24"/>
-      <c r="B913" s="24"/>
+      <c r="A913" s="22"/>
+      <c r="B913" s="22"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="A914" s="24"/>
-      <c r="B914" s="24"/>
+      <c r="A914" s="22"/>
+      <c r="B914" s="22"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="A915" s="24"/>
-      <c r="B915" s="24"/>
+      <c r="A915" s="22"/>
+      <c r="B915" s="22"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="A916" s="24"/>
-      <c r="B916" s="24"/>
+      <c r="A916" s="22"/>
+      <c r="B916" s="22"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="A917" s="24"/>
-      <c r="B917" s="24"/>
+      <c r="A917" s="22"/>
+      <c r="B917" s="22"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="A918" s="24"/>
-      <c r="B918" s="24"/>
+      <c r="A918" s="22"/>
+      <c r="B918" s="22"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="A919" s="24"/>
-      <c r="B919" s="24"/>
+      <c r="A919" s="22"/>
+      <c r="B919" s="22"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="A920" s="24"/>
-      <c r="B920" s="24"/>
+      <c r="A920" s="22"/>
+      <c r="B920" s="22"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="A921" s="24"/>
-      <c r="B921" s="24"/>
+      <c r="A921" s="22"/>
+      <c r="B921" s="22"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="A922" s="24"/>
-      <c r="B922" s="24"/>
+      <c r="A922" s="22"/>
+      <c r="B922" s="22"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="A923" s="24"/>
-      <c r="B923" s="24"/>
+      <c r="A923" s="22"/>
+      <c r="B923" s="22"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="A924" s="24"/>
-      <c r="B924" s="24"/>
+      <c r="A924" s="22"/>
+      <c r="B924" s="22"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="A925" s="24"/>
-      <c r="B925" s="24"/>
+      <c r="A925" s="22"/>
+      <c r="B925" s="22"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="A926" s="24"/>
-      <c r="B926" s="24"/>
+      <c r="A926" s="22"/>
+      <c r="B926" s="22"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="A927" s="24"/>
-      <c r="B927" s="24"/>
+      <c r="A927" s="22"/>
+      <c r="B927" s="22"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="A928" s="24"/>
-      <c r="B928" s="24"/>
+      <c r="A928" s="22"/>
+      <c r="B928" s="22"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="A929" s="24"/>
-      <c r="B929" s="24"/>
+      <c r="A929" s="22"/>
+      <c r="B929" s="22"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="A930" s="24"/>
-      <c r="B930" s="24"/>
+      <c r="A930" s="22"/>
+      <c r="B930" s="22"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="A931" s="24"/>
-      <c r="B931" s="24"/>
+      <c r="A931" s="22"/>
+      <c r="B931" s="22"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="A932" s="24"/>
-      <c r="B932" s="24"/>
+      <c r="A932" s="22"/>
+      <c r="B932" s="22"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="A933" s="24"/>
-      <c r="B933" s="24"/>
+      <c r="A933" s="22"/>
+      <c r="B933" s="22"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="A934" s="24"/>
-      <c r="B934" s="24"/>
+      <c r="A934" s="22"/>
+      <c r="B934" s="22"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="A935" s="24"/>
-      <c r="B935" s="24"/>
+      <c r="A935" s="22"/>
+      <c r="B935" s="22"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="A936" s="24"/>
-      <c r="B936" s="24"/>
+      <c r="A936" s="22"/>
+      <c r="B936" s="22"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="A937" s="24"/>
-      <c r="B937" s="24"/>
+      <c r="A937" s="22"/>
+      <c r="B937" s="22"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="A938" s="24"/>
-      <c r="B938" s="24"/>
+      <c r="A938" s="22"/>
+      <c r="B938" s="22"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="A939" s="24"/>
-      <c r="B939" s="24"/>
+      <c r="A939" s="22"/>
+      <c r="B939" s="22"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="A940" s="24"/>
-      <c r="B940" s="24"/>
+      <c r="A940" s="22"/>
+      <c r="B940" s="22"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="A941" s="24"/>
-      <c r="B941" s="24"/>
+      <c r="A941" s="22"/>
+      <c r="B941" s="22"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="A942" s="24"/>
-      <c r="B942" s="24"/>
+      <c r="A942" s="22"/>
+      <c r="B942" s="22"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="A943" s="24"/>
-      <c r="B943" s="24"/>
+      <c r="A943" s="22"/>
+      <c r="B943" s="22"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="A944" s="24"/>
-      <c r="B944" s="24"/>
+      <c r="A944" s="22"/>
+      <c r="B944" s="22"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="A945" s="24"/>
-      <c r="B945" s="24"/>
+      <c r="A945" s="22"/>
+      <c r="B945" s="22"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="A946" s="24"/>
-      <c r="B946" s="24"/>
+      <c r="A946" s="22"/>
+      <c r="B946" s="22"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="A947" s="24"/>
-      <c r="B947" s="24"/>
+      <c r="A947" s="22"/>
+      <c r="B947" s="22"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="A948" s="24"/>
-      <c r="B948" s="24"/>
+      <c r="A948" s="22"/>
+      <c r="B948" s="22"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="A949" s="24"/>
-      <c r="B949" s="24"/>
+      <c r="A949" s="22"/>
+      <c r="B949" s="22"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="A950" s="24"/>
-      <c r="B950" s="24"/>
+      <c r="A950" s="22"/>
+      <c r="B950" s="22"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="A951" s="24"/>
-      <c r="B951" s="24"/>
+      <c r="A951" s="22"/>
+      <c r="B951" s="22"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="A952" s="24"/>
-      <c r="B952" s="24"/>
+      <c r="A952" s="22"/>
+      <c r="B952" s="22"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="A953" s="24"/>
-      <c r="B953" s="24"/>
+      <c r="A953" s="22"/>
+      <c r="B953" s="22"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="A954" s="24"/>
-      <c r="B954" s="24"/>
+      <c r="A954" s="22"/>
+      <c r="B954" s="22"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="A955" s="24"/>
-      <c r="B955" s="24"/>
+      <c r="A955" s="22"/>
+      <c r="B955" s="22"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="A956" s="24"/>
-      <c r="B956" s="24"/>
+      <c r="A956" s="22"/>
+      <c r="B956" s="22"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="A957" s="24"/>
-      <c r="B957" s="24"/>
+      <c r="A957" s="22"/>
+      <c r="B957" s="22"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="A958" s="24"/>
-      <c r="B958" s="24"/>
+      <c r="A958" s="22"/>
+      <c r="B958" s="22"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="A959" s="24"/>
-      <c r="B959" s="24"/>
+      <c r="A959" s="22"/>
+      <c r="B959" s="22"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="A960" s="24"/>
-      <c r="B960" s="24"/>
+      <c r="A960" s="22"/>
+      <c r="B960" s="22"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="A961" s="24"/>
-      <c r="B961" s="24"/>
+      <c r="A961" s="22"/>
+      <c r="B961" s="22"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="A962" s="24"/>
-      <c r="B962" s="24"/>
+      <c r="A962" s="22"/>
+      <c r="B962" s="22"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="A963" s="24"/>
-      <c r="B963" s="24"/>
+      <c r="A963" s="22"/>
+      <c r="B963" s="22"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="A964" s="24"/>
-      <c r="B964" s="24"/>
+      <c r="A964" s="22"/>
+      <c r="B964" s="22"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="A965" s="24"/>
-      <c r="B965" s="24"/>
+      <c r="A965" s="22"/>
+      <c r="B965" s="22"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="A966" s="24"/>
-      <c r="B966" s="24"/>
+      <c r="A966" s="22"/>
+      <c r="B966" s="22"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="A967" s="24"/>
-      <c r="B967" s="24"/>
+      <c r="A967" s="22"/>
+      <c r="B967" s="22"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="A968" s="24"/>
-      <c r="B968" s="24"/>
+      <c r="A968" s="22"/>
+      <c r="B968" s="22"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="A969" s="24"/>
-      <c r="B969" s="24"/>
+      <c r="A969" s="22"/>
+      <c r="B969" s="22"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="A970" s="24"/>
-      <c r="B970" s="24"/>
+      <c r="A970" s="22"/>
+      <c r="B970" s="22"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="A971" s="24"/>
-      <c r="B971" s="24"/>
+      <c r="A971" s="22"/>
+      <c r="B971" s="22"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="A972" s="24"/>
-      <c r="B972" s="24"/>
+      <c r="A972" s="22"/>
+      <c r="B972" s="22"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="A973" s="24"/>
-      <c r="B973" s="24"/>
+      <c r="A973" s="22"/>
+      <c r="B973" s="22"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="A974" s="24"/>
-      <c r="B974" s="24"/>
+      <c r="A974" s="22"/>
+      <c r="B974" s="22"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="A975" s="24"/>
-      <c r="B975" s="24"/>
+      <c r="A975" s="22"/>
+      <c r="B975" s="22"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="A976" s="24"/>
-      <c r="B976" s="24"/>
+      <c r="A976" s="22"/>
+      <c r="B976" s="22"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="A977" s="24"/>
-      <c r="B977" s="24"/>
+      <c r="A977" s="22"/>
+      <c r="B977" s="22"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="A978" s="24"/>
-      <c r="B978" s="24"/>
+      <c r="A978" s="22"/>
+      <c r="B978" s="22"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="A979" s="24"/>
-      <c r="B979" s="24"/>
+      <c r="A979" s="22"/>
+      <c r="B979" s="22"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="A980" s="24"/>
-      <c r="B980" s="24"/>
+      <c r="A980" s="22"/>
+      <c r="B980" s="22"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="A981" s="24"/>
-      <c r="B981" s="24"/>
+      <c r="A981" s="22"/>
+      <c r="B981" s="22"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="A982" s="24"/>
-      <c r="B982" s="24"/>
+      <c r="A982" s="22"/>
+      <c r="B982" s="22"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="A983" s="24"/>
-      <c r="B983" s="24"/>
+      <c r="A983" s="22"/>
+      <c r="B983" s="22"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="A984" s="24"/>
-      <c r="B984" s="24"/>
+      <c r="A984" s="22"/>
+      <c r="B984" s="22"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="A985" s="24"/>
-      <c r="B985" s="24"/>
+      <c r="A985" s="22"/>
+      <c r="B985" s="22"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="A986" s="24"/>
-      <c r="B986" s="24"/>
+      <c r="A986" s="22"/>
+      <c r="B986" s="22"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="A987" s="24"/>
-      <c r="B987" s="24"/>
+      <c r="A987" s="22"/>
+      <c r="B987" s="22"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="A988" s="24"/>
-      <c r="B988" s="24"/>
+      <c r="A988" s="22"/>
+      <c r="B988" s="22"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="A989" s="24"/>
-      <c r="B989" s="24"/>
+      <c r="A989" s="22"/>
+      <c r="B989" s="22"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="A990" s="24"/>
-      <c r="B990" s="24"/>
+      <c r="A990" s="22"/>
+      <c r="B990" s="22"/>
     </row>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
